--- a/2015_부문분류표.xlsx
+++ b/2015_부문분류표.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:Summer/프로젝트/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Innovation\Desktop\김동요\jupyter\프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FC9FF4-7FFC-1F46-A95C-2DE3CD396DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="27540" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="495" windowWidth="27540" windowHeight="17505"/>
   </bookViews>
   <sheets>
     <sheet name="상품분류표" sheetId="2" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <definedName name="Z_D1C344E6_E0A3_4167_98C4_6AA9A582FA84_.wvu.PrintTitles" localSheetId="1" hidden="1">산업분류표!$2:$3</definedName>
     <definedName name="Z_D1C344E6_E0A3_4167_98C4_6AA9A582FA84_.wvu.PrintTitles" localSheetId="0" hidden="1">상품분류표!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <customWorkbookViews>
     <customWorkbookView name="bok - 사용자 보기" guid="{D1C344E6-E0A3-4167-98C4-6AA9A582FA84}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="768" activeSheetId="2"/>
   </customWorkbookViews>
@@ -7627,8 +7626,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8811,19 +8810,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -8838,10 +8837,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="표준 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="표준 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="표준 6" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 4" xfId="4"/>
+    <cellStyle name="표준 5" xfId="2"/>
+    <cellStyle name="표준 6" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9118,7 +9117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
@@ -9126,26 +9125,26 @@
   <dimension ref="A1:H412"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D281" sqref="B281:D281"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" style="52" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" style="52" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="52" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="35.6640625" style="52" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="35.625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.625" style="52" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="35.625" style="52" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="35.625" style="52" customWidth="1"/>
+    <col min="9" max="9" width="2.625" style="14" customWidth="1"/>
     <col min="10" max="10" width="9" style="14" customWidth="1"/>
     <col min="11" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.5" customHeight="1">
+    <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>377</v>
       </c>
@@ -9171,7 +9170,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.5" customHeight="1">
+    <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>382</v>
       </c>
@@ -9185,7 +9184,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="54"/>
     </row>
-    <row r="3" spans="1:8" ht="13.5" customHeight="1">
+    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>383</v>
       </c>
@@ -9199,7 +9198,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="54"/>
     </row>
-    <row r="4" spans="1:8" ht="13.5" customHeight="1">
+    <row r="4" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>384</v>
       </c>
@@ -9213,7 +9212,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="54"/>
     </row>
-    <row r="5" spans="1:8" ht="13.5" customHeight="1">
+    <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>385</v>
       </c>
@@ -9231,7 +9230,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="54"/>
     </row>
-    <row r="6" spans="1:8" ht="13.5" customHeight="1">
+    <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>388</v>
       </c>
@@ -9245,7 +9244,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="54"/>
     </row>
-    <row r="7" spans="1:8" ht="13.5" customHeight="1">
+    <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>389</v>
       </c>
@@ -9263,7 +9262,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="54"/>
     </row>
-    <row r="8" spans="1:8" ht="13.5" customHeight="1">
+    <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>392</v>
       </c>
@@ -9277,7 +9276,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="54"/>
     </row>
-    <row r="9" spans="1:8" ht="13.5" customHeight="1">
+    <row r="9" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>393</v>
       </c>
@@ -9291,7 +9290,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="54"/>
     </row>
-    <row r="10" spans="1:8" ht="13.5" customHeight="1">
+    <row r="10" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>394</v>
       </c>
@@ -9305,7 +9304,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="54"/>
     </row>
-    <row r="11" spans="1:8" ht="13.5" customHeight="1">
+    <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>395</v>
       </c>
@@ -9319,7 +9318,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="54"/>
     </row>
-    <row r="12" spans="1:8" ht="13.5" customHeight="1">
+    <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>396</v>
       </c>
@@ -9333,7 +9332,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="54"/>
     </row>
-    <row r="13" spans="1:8" ht="13.5" customHeight="1">
+    <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>397</v>
       </c>
@@ -9347,7 +9346,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="54"/>
     </row>
-    <row r="14" spans="1:8" ht="13.5" customHeight="1">
+    <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>398</v>
       </c>
@@ -9369,7 +9368,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="54"/>
     </row>
-    <row r="15" spans="1:8" ht="13.5" customHeight="1">
+    <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>401</v>
       </c>
@@ -9383,7 +9382,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="54"/>
     </row>
-    <row r="16" spans="1:8" ht="13.5" customHeight="1">
+    <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>402</v>
       </c>
@@ -9401,7 +9400,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="54"/>
     </row>
-    <row r="17" spans="1:8" ht="13.5" customHeight="1">
+    <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>404</v>
       </c>
@@ -9415,7 +9414,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="54"/>
     </row>
-    <row r="18" spans="1:8" ht="13.5" customHeight="1">
+    <row r="18" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>405</v>
       </c>
@@ -9429,7 +9428,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="54"/>
     </row>
-    <row r="19" spans="1:8" ht="13.5" customHeight="1">
+    <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>406</v>
       </c>
@@ -9451,7 +9450,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="54"/>
     </row>
-    <row r="20" spans="1:8" ht="13.5" customHeight="1">
+    <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>410</v>
       </c>
@@ -9465,7 +9464,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="54"/>
     </row>
-    <row r="21" spans="1:8" ht="13.5" customHeight="1">
+    <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>411</v>
       </c>
@@ -9479,7 +9478,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="54"/>
     </row>
-    <row r="22" spans="1:8" ht="13.5" customHeight="1">
+    <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>412</v>
       </c>
@@ -9493,7 +9492,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="54"/>
     </row>
-    <row r="23" spans="1:8" ht="13.5" customHeight="1">
+    <row r="23" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>413</v>
       </c>
@@ -9515,7 +9514,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="54"/>
     </row>
-    <row r="24" spans="1:8" ht="13.5" customHeight="1">
+    <row r="24" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>417</v>
       </c>
@@ -9529,7 +9528,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="54"/>
     </row>
-    <row r="25" spans="1:8" ht="13.5" customHeight="1">
+    <row r="25" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>418</v>
       </c>
@@ -9551,7 +9550,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="54"/>
     </row>
-    <row r="26" spans="1:8" ht="13.5" customHeight="1">
+    <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>421</v>
       </c>
@@ -9577,7 +9576,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.5" customHeight="1">
+    <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>425</v>
       </c>
@@ -9591,7 +9590,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="54"/>
     </row>
-    <row r="28" spans="1:8" ht="13.5" customHeight="1">
+    <row r="28" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>426</v>
       </c>
@@ -9609,7 +9608,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="54"/>
     </row>
-    <row r="29" spans="1:8" ht="13.5" customHeight="1">
+    <row r="29" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>429</v>
       </c>
@@ -9623,7 +9622,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="54"/>
     </row>
-    <row r="30" spans="1:8" ht="13.5" customHeight="1">
+    <row r="30" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>430</v>
       </c>
@@ -9645,7 +9644,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="54"/>
     </row>
-    <row r="31" spans="1:8" ht="13.5" customHeight="1">
+    <row r="31" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>433</v>
       </c>
@@ -9659,7 +9658,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="54"/>
     </row>
-    <row r="32" spans="1:8" ht="13.5" customHeight="1">
+    <row r="32" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>434</v>
       </c>
@@ -9677,7 +9676,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="54"/>
     </row>
-    <row r="33" spans="1:8" ht="13.5" customHeight="1">
+    <row r="33" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>437</v>
       </c>
@@ -9691,7 +9690,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="54"/>
     </row>
-    <row r="34" spans="1:8" ht="13.5" customHeight="1">
+    <row r="34" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>438</v>
       </c>
@@ -9705,7 +9704,7 @@
       <c r="G34" s="7"/>
       <c r="H34" s="55"/>
     </row>
-    <row r="35" spans="1:8" ht="13.5" customHeight="1">
+    <row r="35" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>439</v>
       </c>
@@ -9731,7 +9730,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="13.5" customHeight="1">
+    <row r="36" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>443</v>
       </c>
@@ -9745,7 +9744,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="54"/>
     </row>
-    <row r="37" spans="1:8" ht="13.5" customHeight="1">
+    <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>444</v>
       </c>
@@ -9759,7 +9758,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="54"/>
     </row>
-    <row r="38" spans="1:8" ht="13.5" customHeight="1">
+    <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>445</v>
       </c>
@@ -9773,7 +9772,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="54"/>
     </row>
-    <row r="39" spans="1:8" ht="13.5" customHeight="1">
+    <row r="39" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>446</v>
       </c>
@@ -9791,7 +9790,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="54"/>
     </row>
-    <row r="40" spans="1:8" ht="13.5" customHeight="1">
+    <row r="40" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>449</v>
       </c>
@@ -9805,7 +9804,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="54"/>
     </row>
-    <row r="41" spans="1:8" ht="13.5" customHeight="1">
+    <row r="41" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>450</v>
       </c>
@@ -9823,7 +9822,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="54"/>
     </row>
-    <row r="42" spans="1:8" ht="13.5" customHeight="1">
+    <row r="42" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>453</v>
       </c>
@@ -9837,7 +9836,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="54"/>
     </row>
-    <row r="43" spans="1:8" ht="13.5" customHeight="1">
+    <row r="43" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>454</v>
       </c>
@@ -9855,7 +9854,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="54"/>
     </row>
-    <row r="44" spans="1:8" ht="13.5" customHeight="1">
+    <row r="44" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>457</v>
       </c>
@@ -9869,7 +9868,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="54"/>
     </row>
-    <row r="45" spans="1:8" ht="13.5" customHeight="1">
+    <row r="45" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>458</v>
       </c>
@@ -9883,7 +9882,7 @@
       <c r="G45" s="6"/>
       <c r="H45" s="54"/>
     </row>
-    <row r="46" spans="1:8" ht="13.5" customHeight="1">
+    <row r="46" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>459</v>
       </c>
@@ -9901,7 +9900,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="54"/>
     </row>
-    <row r="47" spans="1:8" ht="13.5" customHeight="1">
+    <row r="47" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>462</v>
       </c>
@@ -9915,7 +9914,7 @@
       <c r="G47" s="6"/>
       <c r="H47" s="54"/>
     </row>
-    <row r="48" spans="1:8" ht="13.5" customHeight="1">
+    <row r="48" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>463</v>
       </c>
@@ -9933,7 +9932,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="54"/>
     </row>
-    <row r="49" spans="1:8" ht="13.5" customHeight="1">
+    <row r="49" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>466</v>
       </c>
@@ -9947,7 +9946,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="54"/>
     </row>
-    <row r="50" spans="1:8" ht="13.5" customHeight="1">
+    <row r="50" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>467</v>
       </c>
@@ -9965,7 +9964,7 @@
       <c r="G50" s="6"/>
       <c r="H50" s="54"/>
     </row>
-    <row r="51" spans="1:8" ht="13.5" customHeight="1">
+    <row r="51" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>469</v>
       </c>
@@ -9979,7 +9978,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="54"/>
     </row>
-    <row r="52" spans="1:8" ht="13.5" customHeight="1">
+    <row r="52" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>470</v>
       </c>
@@ -9993,7 +9992,7 @@
       <c r="G52" s="6"/>
       <c r="H52" s="54"/>
     </row>
-    <row r="53" spans="1:8" ht="13.5" customHeight="1">
+    <row r="53" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>471</v>
       </c>
@@ -10007,7 +10006,7 @@
       <c r="G53" s="6"/>
       <c r="H53" s="54"/>
     </row>
-    <row r="54" spans="1:8" ht="13.5" customHeight="1">
+    <row r="54" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>472</v>
       </c>
@@ -10025,7 +10024,7 @@
       <c r="G54" s="6"/>
       <c r="H54" s="54"/>
     </row>
-    <row r="55" spans="1:8" ht="13.5" customHeight="1">
+    <row r="55" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>474</v>
       </c>
@@ -10047,7 +10046,7 @@
       <c r="G55" s="6"/>
       <c r="H55" s="54"/>
     </row>
-    <row r="56" spans="1:8" ht="13.5" customHeight="1">
+    <row r="56" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>479</v>
       </c>
@@ -10061,7 +10060,7 @@
       <c r="G56" s="6"/>
       <c r="H56" s="54"/>
     </row>
-    <row r="57" spans="1:8" ht="13.5" customHeight="1">
+    <row r="57" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>480</v>
       </c>
@@ -10075,7 +10074,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="54"/>
     </row>
-    <row r="58" spans="1:8" ht="13.5" customHeight="1">
+    <row r="58" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>481</v>
       </c>
@@ -10089,7 +10088,7 @@
       <c r="G58" s="6"/>
       <c r="H58" s="54"/>
     </row>
-    <row r="59" spans="1:8" ht="13.5" customHeight="1">
+    <row r="59" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>482</v>
       </c>
@@ -10107,7 +10106,7 @@
       <c r="G59" s="6"/>
       <c r="H59" s="54"/>
     </row>
-    <row r="60" spans="1:8" ht="13.5" customHeight="1">
+    <row r="60" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>484</v>
       </c>
@@ -10129,7 +10128,7 @@
       <c r="G60" s="7"/>
       <c r="H60" s="55"/>
     </row>
-    <row r="61" spans="1:8" ht="13.5" customHeight="1">
+    <row r="61" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>487</v>
       </c>
@@ -10155,7 +10154,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="13.5" customHeight="1">
+    <row r="62" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>493</v>
       </c>
@@ -10169,7 +10168,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="54"/>
     </row>
-    <row r="63" spans="1:8" ht="13.5" customHeight="1">
+    <row r="63" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>494</v>
       </c>
@@ -10187,7 +10186,7 @@
       <c r="G63" s="6"/>
       <c r="H63" s="54"/>
     </row>
-    <row r="64" spans="1:8" ht="13.5" customHeight="1">
+    <row r="64" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>497</v>
       </c>
@@ -10201,7 +10200,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="54"/>
     </row>
-    <row r="65" spans="1:8" ht="13.5" customHeight="1">
+    <row r="65" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>498</v>
       </c>
@@ -10215,7 +10214,7 @@
       <c r="G65" s="6"/>
       <c r="H65" s="54"/>
     </row>
-    <row r="66" spans="1:8" ht="13.5" customHeight="1">
+    <row r="66" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>499</v>
       </c>
@@ -10233,7 +10232,7 @@
       <c r="G66" s="6"/>
       <c r="H66" s="54"/>
     </row>
-    <row r="67" spans="1:8" ht="13.5" customHeight="1">
+    <row r="67" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>501</v>
       </c>
@@ -10251,7 +10250,7 @@
       <c r="G67" s="6"/>
       <c r="H67" s="54"/>
     </row>
-    <row r="68" spans="1:8" ht="13.5" customHeight="1">
+    <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>503</v>
       </c>
@@ -10265,7 +10264,7 @@
       <c r="G68" s="6"/>
       <c r="H68" s="54"/>
     </row>
-    <row r="69" spans="1:8" ht="13.5" customHeight="1">
+    <row r="69" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>504</v>
       </c>
@@ -10279,7 +10278,7 @@
       <c r="G69" s="6"/>
       <c r="H69" s="54"/>
     </row>
-    <row r="70" spans="1:8" ht="13.5" customHeight="1">
+    <row r="70" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>505</v>
       </c>
@@ -10297,7 +10296,7 @@
       <c r="G70" s="6"/>
       <c r="H70" s="54"/>
     </row>
-    <row r="71" spans="1:8" ht="13.5" customHeight="1">
+    <row r="71" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>508</v>
       </c>
@@ -10311,7 +10310,7 @@
       <c r="G71" s="6"/>
       <c r="H71" s="54"/>
     </row>
-    <row r="72" spans="1:8" ht="13.5" customHeight="1">
+    <row r="72" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>509</v>
       </c>
@@ -10325,7 +10324,7 @@
       <c r="G72" s="6"/>
       <c r="H72" s="54"/>
     </row>
-    <row r="73" spans="1:8" ht="13.5" customHeight="1">
+    <row r="73" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>510</v>
       </c>
@@ -10339,7 +10338,7 @@
       <c r="G73" s="6"/>
       <c r="H73" s="54"/>
     </row>
-    <row r="74" spans="1:8" ht="13.5" customHeight="1">
+    <row r="74" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>511</v>
       </c>
@@ -10353,7 +10352,7 @@
       <c r="G74" s="6"/>
       <c r="H74" s="54"/>
     </row>
-    <row r="75" spans="1:8" ht="13.5" customHeight="1">
+    <row r="75" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>512</v>
       </c>
@@ -10375,7 +10374,7 @@
       <c r="G75" s="6"/>
       <c r="H75" s="54"/>
     </row>
-    <row r="76" spans="1:8" ht="13.5" customHeight="1">
+    <row r="76" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>517</v>
       </c>
@@ -10389,7 +10388,7 @@
       <c r="G76" s="6"/>
       <c r="H76" s="54"/>
     </row>
-    <row r="77" spans="1:8" ht="13.5" customHeight="1">
+    <row r="77" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>518</v>
       </c>
@@ -10403,7 +10402,7 @@
       <c r="G77" s="6"/>
       <c r="H77" s="54"/>
     </row>
-    <row r="78" spans="1:8" ht="13.5" customHeight="1">
+    <row r="78" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>519</v>
       </c>
@@ -10417,7 +10416,7 @@
       <c r="G78" s="6"/>
       <c r="H78" s="54"/>
     </row>
-    <row r="79" spans="1:8" ht="13.5" customHeight="1">
+    <row r="79" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>520</v>
       </c>
@@ -10431,7 +10430,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="55"/>
     </row>
-    <row r="80" spans="1:8" ht="13.5" customHeight="1">
+    <row r="80" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>521</v>
       </c>
@@ -10457,7 +10456,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="13.5" customHeight="1">
+    <row r="81" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>528</v>
       </c>
@@ -10471,7 +10470,7 @@
       <c r="G81" s="6"/>
       <c r="H81" s="54"/>
     </row>
-    <row r="82" spans="1:8" ht="13.5" customHeight="1">
+    <row r="82" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>529</v>
       </c>
@@ -10485,7 +10484,7 @@
       <c r="G82" s="6"/>
       <c r="H82" s="54"/>
     </row>
-    <row r="83" spans="1:8" ht="13.5" customHeight="1">
+    <row r="83" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>530</v>
       </c>
@@ -10503,7 +10502,7 @@
       <c r="G83" s="6"/>
       <c r="H83" s="54"/>
     </row>
-    <row r="84" spans="1:8" ht="13.5" customHeight="1">
+    <row r="84" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>532</v>
       </c>
@@ -10517,7 +10516,7 @@
       <c r="G84" s="6"/>
       <c r="H84" s="54"/>
     </row>
-    <row r="85" spans="1:8" ht="13.5" customHeight="1">
+    <row r="85" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>533</v>
       </c>
@@ -10531,7 +10530,7 @@
       <c r="G85" s="6"/>
       <c r="H85" s="54"/>
     </row>
-    <row r="86" spans="1:8" ht="13.5" customHeight="1">
+    <row r="86" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>534</v>
       </c>
@@ -10553,7 +10552,7 @@
       <c r="G86" s="6"/>
       <c r="H86" s="54"/>
     </row>
-    <row r="87" spans="1:8" ht="13.5" customHeight="1">
+    <row r="87" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>538</v>
       </c>
@@ -10571,7 +10570,7 @@
       <c r="G87" s="6"/>
       <c r="H87" s="54"/>
     </row>
-    <row r="88" spans="1:8" ht="13.5" customHeight="1">
+    <row r="88" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>541</v>
       </c>
@@ -10585,7 +10584,7 @@
       <c r="G88" s="6"/>
       <c r="H88" s="54"/>
     </row>
-    <row r="89" spans="1:8" ht="13.5" customHeight="1">
+    <row r="89" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>542</v>
       </c>
@@ -10603,7 +10602,7 @@
       <c r="G89" s="6"/>
       <c r="H89" s="54"/>
     </row>
-    <row r="90" spans="1:8" ht="13.5" customHeight="1">
+    <row r="90" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>544</v>
       </c>
@@ -10617,7 +10616,7 @@
       <c r="G90" s="6"/>
       <c r="H90" s="54"/>
     </row>
-    <row r="91" spans="1:8" ht="13.5" customHeight="1">
+    <row r="91" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>545</v>
       </c>
@@ -10631,7 +10630,7 @@
       <c r="G91" s="6"/>
       <c r="H91" s="54"/>
     </row>
-    <row r="92" spans="1:8" ht="13.5" customHeight="1">
+    <row r="92" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>546</v>
       </c>
@@ -10645,7 +10644,7 @@
       <c r="G92" s="6"/>
       <c r="H92" s="54"/>
     </row>
-    <row r="93" spans="1:8" ht="13.5" customHeight="1">
+    <row r="93" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>547</v>
       </c>
@@ -10659,7 +10658,7 @@
       <c r="G93" s="6"/>
       <c r="H93" s="54"/>
     </row>
-    <row r="94" spans="1:8" ht="13.5" customHeight="1">
+    <row r="94" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>548</v>
       </c>
@@ -10681,7 +10680,7 @@
       <c r="G94" s="7"/>
       <c r="H94" s="55"/>
     </row>
-    <row r="95" spans="1:8" ht="13.5" customHeight="1">
+    <row r="95" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>553</v>
       </c>
@@ -10707,7 +10706,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="13.5" customHeight="1">
+    <row r="96" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>559</v>
       </c>
@@ -10721,7 +10720,7 @@
       <c r="G96" s="6"/>
       <c r="H96" s="54"/>
     </row>
-    <row r="97" spans="1:8" ht="13.5" customHeight="1">
+    <row r="97" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>560</v>
       </c>
@@ -10739,7 +10738,7 @@
       <c r="G97" s="6"/>
       <c r="H97" s="54"/>
     </row>
-    <row r="98" spans="1:8" ht="13.5" customHeight="1">
+    <row r="98" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>563</v>
       </c>
@@ -10753,7 +10752,7 @@
       <c r="G98" s="6"/>
       <c r="H98" s="54"/>
     </row>
-    <row r="99" spans="1:8" ht="13.5" customHeight="1">
+    <row r="99" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>564</v>
       </c>
@@ -10767,7 +10766,7 @@
       <c r="G99" s="6"/>
       <c r="H99" s="54"/>
     </row>
-    <row r="100" spans="1:8" ht="13.5" customHeight="1">
+    <row r="100" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>565</v>
       </c>
@@ -10781,7 +10780,7 @@
       <c r="G100" s="6"/>
       <c r="H100" s="54"/>
     </row>
-    <row r="101" spans="1:8" ht="13.5" customHeight="1">
+    <row r="101" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>566</v>
       </c>
@@ -10795,7 +10794,7 @@
       <c r="G101" s="6"/>
       <c r="H101" s="54"/>
     </row>
-    <row r="102" spans="1:8" ht="13.5" customHeight="1">
+    <row r="102" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>567</v>
       </c>
@@ -10809,7 +10808,7 @@
       <c r="G102" s="6"/>
       <c r="H102" s="54"/>
     </row>
-    <row r="103" spans="1:8" ht="13.5" customHeight="1">
+    <row r="103" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>568</v>
       </c>
@@ -10823,7 +10822,7 @@
       <c r="G103" s="6"/>
       <c r="H103" s="54"/>
     </row>
-    <row r="104" spans="1:8" ht="13.5" customHeight="1">
+    <row r="104" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>569</v>
       </c>
@@ -10837,7 +10836,7 @@
       <c r="G104" s="6"/>
       <c r="H104" s="54"/>
     </row>
-    <row r="105" spans="1:8" ht="13.5" customHeight="1">
+    <row r="105" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>570</v>
       </c>
@@ -10855,7 +10854,7 @@
       <c r="G105" s="6"/>
       <c r="H105" s="54"/>
     </row>
-    <row r="106" spans="1:8" ht="13.5" customHeight="1">
+    <row r="106" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>573</v>
       </c>
@@ -10869,7 +10868,7 @@
       <c r="G106" s="7"/>
       <c r="H106" s="55"/>
     </row>
-    <row r="107" spans="1:8" ht="13.5" customHeight="1">
+    <row r="107" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>574</v>
       </c>
@@ -10895,7 +10894,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13.5" customHeight="1">
+    <row r="108" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>581</v>
       </c>
@@ -10909,7 +10908,7 @@
       <c r="G108" s="6"/>
       <c r="H108" s="54"/>
     </row>
-    <row r="109" spans="1:8" ht="13.5" customHeight="1">
+    <row r="109" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>582</v>
       </c>
@@ -10923,7 +10922,7 @@
       <c r="G109" s="6"/>
       <c r="H109" s="54"/>
     </row>
-    <row r="110" spans="1:8" ht="13.5" customHeight="1">
+    <row r="110" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>583</v>
       </c>
@@ -10937,7 +10936,7 @@
       <c r="G110" s="6"/>
       <c r="H110" s="54"/>
     </row>
-    <row r="111" spans="1:8" ht="13.5" customHeight="1">
+    <row r="111" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>584</v>
       </c>
@@ -10955,7 +10954,7 @@
       <c r="G111" s="6"/>
       <c r="H111" s="54"/>
     </row>
-    <row r="112" spans="1:8" ht="13.5" customHeight="1">
+    <row r="112" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>586</v>
       </c>
@@ -10969,7 +10968,7 @@
       <c r="G112" s="6"/>
       <c r="H112" s="54"/>
     </row>
-    <row r="113" spans="1:8" ht="13.5" customHeight="1">
+    <row r="113" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>587</v>
       </c>
@@ -10983,7 +10982,7 @@
       <c r="G113" s="6"/>
       <c r="H113" s="54"/>
     </row>
-    <row r="114" spans="1:8" ht="13.5" customHeight="1">
+    <row r="114" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>588</v>
       </c>
@@ -11005,7 +11004,7 @@
       <c r="G114" s="6"/>
       <c r="H114" s="54"/>
     </row>
-    <row r="115" spans="1:8" ht="13.5" customHeight="1">
+    <row r="115" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>591</v>
       </c>
@@ -11019,7 +11018,7 @@
       <c r="G115" s="6"/>
       <c r="H115" s="54"/>
     </row>
-    <row r="116" spans="1:8" ht="13.5" customHeight="1">
+    <row r="116" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>592</v>
       </c>
@@ -11041,7 +11040,7 @@
       <c r="G116" s="6"/>
       <c r="H116" s="54"/>
     </row>
-    <row r="117" spans="1:8" ht="13.5" customHeight="1">
+    <row r="117" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>595</v>
       </c>
@@ -11063,7 +11062,7 @@
       <c r="G117" s="6"/>
       <c r="H117" s="54"/>
     </row>
-    <row r="118" spans="1:8" ht="13.5" customHeight="1">
+    <row r="118" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>598</v>
       </c>
@@ -11085,7 +11084,7 @@
       <c r="G118" s="6"/>
       <c r="H118" s="54"/>
     </row>
-    <row r="119" spans="1:8" ht="13.5" customHeight="1">
+    <row r="119" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>602</v>
       </c>
@@ -11099,7 +11098,7 @@
       <c r="G119" s="6"/>
       <c r="H119" s="54"/>
     </row>
-    <row r="120" spans="1:8" ht="13.5" customHeight="1">
+    <row r="120" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>603</v>
       </c>
@@ -11121,7 +11120,7 @@
       <c r="G120" s="6"/>
       <c r="H120" s="54"/>
     </row>
-    <row r="121" spans="1:8" ht="13.5" customHeight="1">
+    <row r="121" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>606</v>
       </c>
@@ -11135,7 +11134,7 @@
       <c r="G121" s="6"/>
       <c r="H121" s="54"/>
     </row>
-    <row r="122" spans="1:8" ht="13.5" customHeight="1">
+    <row r="122" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>607</v>
       </c>
@@ -11153,7 +11152,7 @@
       <c r="G122" s="6"/>
       <c r="H122" s="54"/>
     </row>
-    <row r="123" spans="1:8" ht="13.5" customHeight="1">
+    <row r="123" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>610</v>
       </c>
@@ -11167,7 +11166,7 @@
       <c r="G123" s="6"/>
       <c r="H123" s="54"/>
     </row>
-    <row r="124" spans="1:8" ht="13.5" customHeight="1">
+    <row r="124" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>611</v>
       </c>
@@ -11185,7 +11184,7 @@
       <c r="G124" s="6"/>
       <c r="H124" s="54"/>
     </row>
-    <row r="125" spans="1:8" ht="13.5" customHeight="1">
+    <row r="125" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>613</v>
       </c>
@@ -11199,7 +11198,7 @@
       <c r="G125" s="6"/>
       <c r="H125" s="54"/>
     </row>
-    <row r="126" spans="1:8" ht="13.5" customHeight="1">
+    <row r="126" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>614</v>
       </c>
@@ -11213,7 +11212,7 @@
       <c r="G126" s="6"/>
       <c r="H126" s="54"/>
     </row>
-    <row r="127" spans="1:8" ht="13.5" customHeight="1">
+    <row r="127" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>615</v>
       </c>
@@ -11235,7 +11234,7 @@
       <c r="G127" s="6"/>
       <c r="H127" s="54"/>
     </row>
-    <row r="128" spans="1:8" ht="13.5" customHeight="1">
+    <row r="128" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>619</v>
       </c>
@@ -11253,7 +11252,7 @@
       <c r="G128" s="6"/>
       <c r="H128" s="54"/>
     </row>
-    <row r="129" spans="1:8" ht="13.5" customHeight="1">
+    <row r="129" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>621</v>
       </c>
@@ -11267,7 +11266,7 @@
       <c r="G129" s="6"/>
       <c r="H129" s="54"/>
     </row>
-    <row r="130" spans="1:8" ht="13.5" customHeight="1">
+    <row r="130" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>622</v>
       </c>
@@ -11281,7 +11280,7 @@
       <c r="G130" s="6"/>
       <c r="H130" s="54"/>
     </row>
-    <row r="131" spans="1:8" ht="13.5" customHeight="1">
+    <row r="131" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>623</v>
       </c>
@@ -11295,7 +11294,7 @@
       <c r="G131" s="6"/>
       <c r="H131" s="54"/>
     </row>
-    <row r="132" spans="1:8" ht="13.5" customHeight="1">
+    <row r="132" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>624</v>
       </c>
@@ -11317,7 +11316,7 @@
       <c r="G132" s="6"/>
       <c r="H132" s="54"/>
     </row>
-    <row r="133" spans="1:8" ht="13.5" customHeight="1">
+    <row r="133" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>627</v>
       </c>
@@ -11335,7 +11334,7 @@
       <c r="G133" s="6"/>
       <c r="H133" s="54"/>
     </row>
-    <row r="134" spans="1:8" ht="13.5" customHeight="1">
+    <row r="134" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>629</v>
       </c>
@@ -11349,7 +11348,7 @@
       <c r="G134" s="7"/>
       <c r="H134" s="55"/>
     </row>
-    <row r="135" spans="1:8" ht="13.5" customHeight="1">
+    <row r="135" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>630</v>
       </c>
@@ -11375,7 +11374,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="13.5" customHeight="1">
+    <row r="136" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>635</v>
       </c>
@@ -11389,7 +11388,7 @@
       <c r="G136" s="6"/>
       <c r="H136" s="54"/>
     </row>
-    <row r="137" spans="1:8" ht="13.5" customHeight="1">
+    <row r="137" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>636</v>
       </c>
@@ -11403,7 +11402,7 @@
       <c r="G137" s="6"/>
       <c r="H137" s="54"/>
     </row>
-    <row r="138" spans="1:8" ht="13.5" customHeight="1">
+    <row r="138" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>637</v>
       </c>
@@ -11417,7 +11416,7 @@
       <c r="G138" s="6"/>
       <c r="H138" s="54"/>
     </row>
-    <row r="139" spans="1:8" ht="13.5" customHeight="1">
+    <row r="139" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>638</v>
       </c>
@@ -11439,7 +11438,7 @@
       <c r="G139" s="6"/>
       <c r="H139" s="54"/>
     </row>
-    <row r="140" spans="1:8" ht="13.5" customHeight="1">
+    <row r="140" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>643</v>
       </c>
@@ -11453,7 +11452,7 @@
       <c r="G140" s="6"/>
       <c r="H140" s="54"/>
     </row>
-    <row r="141" spans="1:8" ht="13.5" customHeight="1">
+    <row r="141" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>644</v>
       </c>
@@ -11467,7 +11466,7 @@
       <c r="G141" s="6"/>
       <c r="H141" s="54"/>
     </row>
-    <row r="142" spans="1:8" ht="13.5" customHeight="1">
+    <row r="142" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>645</v>
       </c>
@@ -11481,7 +11480,7 @@
       <c r="G142" s="6"/>
       <c r="H142" s="54"/>
     </row>
-    <row r="143" spans="1:8" ht="13.5" customHeight="1">
+    <row r="143" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>646</v>
       </c>
@@ -11499,7 +11498,7 @@
       <c r="G143" s="6"/>
       <c r="H143" s="54"/>
     </row>
-    <row r="144" spans="1:8" ht="13.5" customHeight="1">
+    <row r="144" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>648</v>
       </c>
@@ -11517,7 +11516,7 @@
       <c r="G144" s="6"/>
       <c r="H144" s="54"/>
     </row>
-    <row r="145" spans="1:8" ht="13.5" customHeight="1">
+    <row r="145" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>650</v>
       </c>
@@ -11531,7 +11530,7 @@
       <c r="G145" s="6"/>
       <c r="H145" s="54"/>
     </row>
-    <row r="146" spans="1:8" ht="13.5" customHeight="1">
+    <row r="146" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>651</v>
       </c>
@@ -11549,7 +11548,7 @@
       <c r="G146" s="6"/>
       <c r="H146" s="54"/>
     </row>
-    <row r="147" spans="1:8" ht="13.5" customHeight="1">
+    <row r="147" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>653</v>
       </c>
@@ -11563,7 +11562,7 @@
       <c r="G147" s="6"/>
       <c r="H147" s="54"/>
     </row>
-    <row r="148" spans="1:8" ht="13.5" customHeight="1">
+    <row r="148" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>654</v>
       </c>
@@ -11577,7 +11576,7 @@
       <c r="G148" s="6"/>
       <c r="H148" s="54"/>
     </row>
-    <row r="149" spans="1:8" ht="13.5" customHeight="1">
+    <row r="149" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>655</v>
       </c>
@@ -11591,7 +11590,7 @@
       <c r="G149" s="6"/>
       <c r="H149" s="54"/>
     </row>
-    <row r="150" spans="1:8" ht="13.5" customHeight="1">
+    <row r="150" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>656</v>
       </c>
@@ -11605,7 +11604,7 @@
       <c r="G150" s="7"/>
       <c r="H150" s="55"/>
     </row>
-    <row r="151" spans="1:8" ht="13.5" customHeight="1">
+    <row r="151" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>657</v>
       </c>
@@ -11631,7 +11630,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="13.5" customHeight="1">
+    <row r="152" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>662</v>
       </c>
@@ -11645,7 +11644,7 @@
       <c r="G152" s="6"/>
       <c r="H152" s="54"/>
     </row>
-    <row r="153" spans="1:8" ht="13.5" customHeight="1">
+    <row r="153" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>663</v>
       </c>
@@ -11659,7 +11658,7 @@
       <c r="G153" s="6"/>
       <c r="H153" s="54"/>
     </row>
-    <row r="154" spans="1:8" ht="13.5" customHeight="1">
+    <row r="154" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>664</v>
       </c>
@@ -11677,7 +11676,7 @@
       <c r="G154" s="6"/>
       <c r="H154" s="54"/>
     </row>
-    <row r="155" spans="1:8" ht="13.5" customHeight="1">
+    <row r="155" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>667</v>
       </c>
@@ -11691,7 +11690,7 @@
       <c r="G155" s="6"/>
       <c r="H155" s="54"/>
     </row>
-    <row r="156" spans="1:8" ht="13.5" customHeight="1">
+    <row r="156" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>668</v>
       </c>
@@ -11705,7 +11704,7 @@
       <c r="G156" s="6"/>
       <c r="H156" s="54"/>
     </row>
-    <row r="157" spans="1:8" ht="13.5" customHeight="1">
+    <row r="157" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>669</v>
       </c>
@@ -11719,7 +11718,7 @@
       <c r="G157" s="6"/>
       <c r="H157" s="54"/>
     </row>
-    <row r="158" spans="1:8" ht="13.5" customHeight="1">
+    <row r="158" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>670</v>
       </c>
@@ -11733,7 +11732,7 @@
       <c r="G158" s="6"/>
       <c r="H158" s="54"/>
     </row>
-    <row r="159" spans="1:8" ht="13.5" customHeight="1">
+    <row r="159" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>671</v>
       </c>
@@ -11747,7 +11746,7 @@
       <c r="G159" s="6"/>
       <c r="H159" s="54"/>
     </row>
-    <row r="160" spans="1:8" ht="13.5" customHeight="1">
+    <row r="160" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>672</v>
       </c>
@@ -11761,7 +11760,7 @@
       <c r="G160" s="6"/>
       <c r="H160" s="54"/>
     </row>
-    <row r="161" spans="1:8" ht="13.5" customHeight="1">
+    <row r="161" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>673</v>
       </c>
@@ -11779,7 +11778,7 @@
       <c r="G161" s="6"/>
       <c r="H161" s="54"/>
     </row>
-    <row r="162" spans="1:8" ht="13.5" customHeight="1">
+    <row r="162" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>675</v>
       </c>
@@ -11797,7 +11796,7 @@
       <c r="G162" s="6"/>
       <c r="H162" s="54"/>
     </row>
-    <row r="163" spans="1:8" ht="13.5" customHeight="1">
+    <row r="163" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>677</v>
       </c>
@@ -11811,7 +11810,7 @@
       <c r="G163" s="6"/>
       <c r="H163" s="54"/>
     </row>
-    <row r="164" spans="1:8" ht="13.5" customHeight="1">
+    <row r="164" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>678</v>
       </c>
@@ -11833,7 +11832,7 @@
       <c r="G164" s="6"/>
       <c r="H164" s="54"/>
     </row>
-    <row r="165" spans="1:8" ht="13.5" customHeight="1">
+    <row r="165" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>683</v>
       </c>
@@ -11847,7 +11846,7 @@
       <c r="G165" s="6"/>
       <c r="H165" s="54"/>
     </row>
-    <row r="166" spans="1:8" ht="13.5" customHeight="1">
+    <row r="166" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>684</v>
       </c>
@@ -11861,7 +11860,7 @@
       <c r="G166" s="6"/>
       <c r="H166" s="54"/>
     </row>
-    <row r="167" spans="1:8" ht="13.5" customHeight="1">
+    <row r="167" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>685</v>
       </c>
@@ -11875,7 +11874,7 @@
       <c r="G167" s="6"/>
       <c r="H167" s="54"/>
     </row>
-    <row r="168" spans="1:8" ht="13.5" customHeight="1">
+    <row r="168" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>686</v>
       </c>
@@ -11889,7 +11888,7 @@
       <c r="G168" s="6"/>
       <c r="H168" s="54"/>
     </row>
-    <row r="169" spans="1:8" ht="13.5" customHeight="1">
+    <row r="169" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>687</v>
       </c>
@@ -11907,7 +11906,7 @@
       <c r="G169" s="6"/>
       <c r="H169" s="54"/>
     </row>
-    <row r="170" spans="1:8" ht="13.5" customHeight="1">
+    <row r="170" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>689</v>
       </c>
@@ -11921,7 +11920,7 @@
       <c r="G170" s="6"/>
       <c r="H170" s="54"/>
     </row>
-    <row r="171" spans="1:8" ht="13.5" customHeight="1">
+    <row r="171" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>690</v>
       </c>
@@ -11935,7 +11934,7 @@
       <c r="G171" s="6"/>
       <c r="H171" s="54"/>
     </row>
-    <row r="172" spans="1:8" ht="13.5" customHeight="1">
+    <row r="172" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>691</v>
       </c>
@@ -11957,7 +11956,7 @@
       <c r="G172" s="7"/>
       <c r="H172" s="55"/>
     </row>
-    <row r="173" spans="1:8" ht="13.5" customHeight="1">
+    <row r="173" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>694</v>
       </c>
@@ -11983,7 +11982,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="13.5" customHeight="1">
+    <row r="174" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>699</v>
       </c>
@@ -11997,7 +11996,7 @@
       <c r="G174" s="6"/>
       <c r="H174" s="54"/>
     </row>
-    <row r="175" spans="1:8" ht="13.5" customHeight="1">
+    <row r="175" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>700</v>
       </c>
@@ -12011,7 +12010,7 @@
       <c r="G175" s="6"/>
       <c r="H175" s="54"/>
     </row>
-    <row r="176" spans="1:8" ht="13.5" customHeight="1">
+    <row r="176" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>701</v>
       </c>
@@ -12025,7 +12024,7 @@
       <c r="G176" s="6"/>
       <c r="H176" s="54"/>
     </row>
-    <row r="177" spans="1:8" ht="13.5" customHeight="1">
+    <row r="177" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>702</v>
       </c>
@@ -12043,7 +12042,7 @@
       <c r="G177" s="6"/>
       <c r="H177" s="54"/>
     </row>
-    <row r="178" spans="1:8" ht="13.5" customHeight="1">
+    <row r="178" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>705</v>
       </c>
@@ -12057,7 +12056,7 @@
       <c r="G178" s="6"/>
       <c r="H178" s="54"/>
     </row>
-    <row r="179" spans="1:8" ht="13.5" customHeight="1">
+    <row r="179" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>706</v>
       </c>
@@ -12075,7 +12074,7 @@
       <c r="G179" s="6"/>
       <c r="H179" s="54"/>
     </row>
-    <row r="180" spans="1:8" ht="13.5" customHeight="1">
+    <row r="180" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>708</v>
       </c>
@@ -12089,7 +12088,7 @@
       <c r="G180" s="6"/>
       <c r="H180" s="54"/>
     </row>
-    <row r="181" spans="1:8" ht="13.5" customHeight="1">
+    <row r="181" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>709</v>
       </c>
@@ -12107,7 +12106,7 @@
       <c r="G181" s="6"/>
       <c r="H181" s="54"/>
     </row>
-    <row r="182" spans="1:8" ht="13.5" customHeight="1">
+    <row r="182" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>711</v>
       </c>
@@ -12121,7 +12120,7 @@
       <c r="G182" s="6"/>
       <c r="H182" s="54"/>
     </row>
-    <row r="183" spans="1:8" ht="13.5" customHeight="1">
+    <row r="183" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>712</v>
       </c>
@@ -12135,7 +12134,7 @@
       <c r="G183" s="6"/>
       <c r="H183" s="54"/>
     </row>
-    <row r="184" spans="1:8" ht="13.5" customHeight="1">
+    <row r="184" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>713</v>
       </c>
@@ -12149,7 +12148,7 @@
       <c r="G184" s="6"/>
       <c r="H184" s="54"/>
     </row>
-    <row r="185" spans="1:8" ht="13.5" customHeight="1">
+    <row r="185" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>714</v>
       </c>
@@ -12163,7 +12162,7 @@
       <c r="G185" s="6"/>
       <c r="H185" s="54"/>
     </row>
-    <row r="186" spans="1:8" ht="13.5" customHeight="1">
+    <row r="186" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>715</v>
       </c>
@@ -12177,7 +12176,7 @@
       <c r="G186" s="7"/>
       <c r="H186" s="55"/>
     </row>
-    <row r="187" spans="1:8" ht="13.5" customHeight="1">
+    <row r="187" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>716</v>
       </c>
@@ -12203,7 +12202,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="13.5" customHeight="1">
+    <row r="188" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>722</v>
       </c>
@@ -12217,7 +12216,7 @@
       <c r="G188" s="6"/>
       <c r="H188" s="54"/>
     </row>
-    <row r="189" spans="1:8" ht="13.5" customHeight="1">
+    <row r="189" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>723</v>
       </c>
@@ -12239,7 +12238,7 @@
       <c r="G189" s="6"/>
       <c r="H189" s="54"/>
     </row>
-    <row r="190" spans="1:8" ht="13.5" customHeight="1">
+    <row r="190" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>727</v>
       </c>
@@ -12253,7 +12252,7 @@
       <c r="G190" s="6"/>
       <c r="H190" s="54"/>
     </row>
-    <row r="191" spans="1:8" ht="13.5" customHeight="1">
+    <row r="191" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>728</v>
       </c>
@@ -12275,7 +12274,7 @@
       <c r="G191" s="6"/>
       <c r="H191" s="54"/>
     </row>
-    <row r="192" spans="1:8" ht="13.5" customHeight="1">
+    <row r="192" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>732</v>
       </c>
@@ -12293,7 +12292,7 @@
       <c r="G192" s="6"/>
       <c r="H192" s="54"/>
     </row>
-    <row r="193" spans="1:8" ht="13.5" customHeight="1">
+    <row r="193" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>734</v>
       </c>
@@ -12307,7 +12306,7 @@
       <c r="G193" s="6"/>
       <c r="H193" s="54"/>
     </row>
-    <row r="194" spans="1:8" ht="13.5" customHeight="1">
+    <row r="194" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>735</v>
       </c>
@@ -12329,7 +12328,7 @@
       <c r="G194" s="6"/>
       <c r="H194" s="54"/>
     </row>
-    <row r="195" spans="1:8" ht="13.5" customHeight="1">
+    <row r="195" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>739</v>
       </c>
@@ -12343,7 +12342,7 @@
       <c r="G195" s="6"/>
       <c r="H195" s="54"/>
     </row>
-    <row r="196" spans="1:8" ht="13.5" customHeight="1">
+    <row r="196" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>740</v>
       </c>
@@ -12357,7 +12356,7 @@
       <c r="G196" s="6"/>
       <c r="H196" s="54"/>
     </row>
-    <row r="197" spans="1:8" ht="13.5" customHeight="1">
+    <row r="197" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>741</v>
       </c>
@@ -12379,7 +12378,7 @@
       <c r="G197" s="6"/>
       <c r="H197" s="54"/>
     </row>
-    <row r="198" spans="1:8" ht="13.5" customHeight="1">
+    <row r="198" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>745</v>
       </c>
@@ -12393,7 +12392,7 @@
       <c r="G198" s="6"/>
       <c r="H198" s="54"/>
     </row>
-    <row r="199" spans="1:8" ht="13.5" customHeight="1">
+    <row r="199" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>746</v>
       </c>
@@ -12407,7 +12406,7 @@
       <c r="G199" s="6"/>
       <c r="H199" s="54"/>
     </row>
-    <row r="200" spans="1:8" ht="13.5" customHeight="1">
+    <row r="200" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>747</v>
       </c>
@@ -12425,7 +12424,7 @@
       <c r="G200" s="6"/>
       <c r="H200" s="54"/>
     </row>
-    <row r="201" spans="1:8" ht="13.5" customHeight="1">
+    <row r="201" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>750</v>
       </c>
@@ -12439,7 +12438,7 @@
       <c r="G201" s="6"/>
       <c r="H201" s="54"/>
     </row>
-    <row r="202" spans="1:8" ht="13.5" customHeight="1">
+    <row r="202" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>751</v>
       </c>
@@ -12453,7 +12452,7 @@
       <c r="G202" s="6"/>
       <c r="H202" s="54"/>
     </row>
-    <row r="203" spans="1:8" ht="13.5" customHeight="1">
+    <row r="203" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>752</v>
       </c>
@@ -12475,7 +12474,7 @@
       <c r="G203" s="6"/>
       <c r="H203" s="54"/>
     </row>
-    <row r="204" spans="1:8" ht="13.5" customHeight="1">
+    <row r="204" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>757</v>
       </c>
@@ -12489,7 +12488,7 @@
       <c r="G204" s="6"/>
       <c r="H204" s="54"/>
     </row>
-    <row r="205" spans="1:8" ht="13.5" customHeight="1">
+    <row r="205" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>758</v>
       </c>
@@ -12503,7 +12502,7 @@
       <c r="G205" s="6"/>
       <c r="H205" s="54"/>
     </row>
-    <row r="206" spans="1:8" ht="13.5" customHeight="1">
+    <row r="206" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>759</v>
       </c>
@@ -12521,7 +12520,7 @@
       <c r="G206" s="6"/>
       <c r="H206" s="54"/>
     </row>
-    <row r="207" spans="1:8" ht="13.5" customHeight="1">
+    <row r="207" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>762</v>
       </c>
@@ -12535,7 +12534,7 @@
       <c r="G207" s="6"/>
       <c r="H207" s="54"/>
     </row>
-    <row r="208" spans="1:8" ht="13.5" customHeight="1">
+    <row r="208" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>763</v>
       </c>
@@ -12549,7 +12548,7 @@
       <c r="G208" s="7"/>
       <c r="H208" s="55"/>
     </row>
-    <row r="209" spans="1:8" ht="13.5" customHeight="1">
+    <row r="209" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>764</v>
       </c>
@@ -12575,7 +12574,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="13.5" customHeight="1">
+    <row r="210" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>769</v>
       </c>
@@ -12593,7 +12592,7 @@
       <c r="G210" s="6"/>
       <c r="H210" s="54"/>
     </row>
-    <row r="211" spans="1:8" ht="13.5" customHeight="1">
+    <row r="211" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>772</v>
       </c>
@@ -12607,7 +12606,7 @@
       <c r="G211" s="6"/>
       <c r="H211" s="54"/>
     </row>
-    <row r="212" spans="1:8" ht="13.5" customHeight="1">
+    <row r="212" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>773</v>
       </c>
@@ -12621,7 +12620,7 @@
       <c r="G212" s="6"/>
       <c r="H212" s="54"/>
     </row>
-    <row r="213" spans="1:8" ht="13.5" customHeight="1">
+    <row r="213" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>774</v>
       </c>
@@ -12635,7 +12634,7 @@
       <c r="G213" s="6"/>
       <c r="H213" s="54"/>
     </row>
-    <row r="214" spans="1:8" ht="13.5" customHeight="1">
+    <row r="214" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>775</v>
       </c>
@@ -12653,7 +12652,7 @@
       <c r="G214" s="6"/>
       <c r="H214" s="54"/>
     </row>
-    <row r="215" spans="1:8" ht="13.5" customHeight="1">
+    <row r="215" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>777</v>
       </c>
@@ -12671,7 +12670,7 @@
       <c r="G215" s="6"/>
       <c r="H215" s="54"/>
     </row>
-    <row r="216" spans="1:8" ht="13.5" customHeight="1">
+    <row r="216" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>780</v>
       </c>
@@ -12689,7 +12688,7 @@
       <c r="G216" s="6"/>
       <c r="H216" s="54"/>
     </row>
-    <row r="217" spans="1:8" ht="13.5" customHeight="1">
+    <row r="217" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>783</v>
       </c>
@@ -12703,7 +12702,7 @@
       <c r="G217" s="6"/>
       <c r="H217" s="54"/>
     </row>
-    <row r="218" spans="1:8" ht="13.5" customHeight="1">
+    <row r="218" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>784</v>
       </c>
@@ -12717,7 +12716,7 @@
       <c r="G218" s="6"/>
       <c r="H218" s="54"/>
     </row>
-    <row r="219" spans="1:8" ht="13.5" customHeight="1">
+    <row r="219" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>785</v>
       </c>
@@ -12735,7 +12734,7 @@
       <c r="G219" s="6"/>
       <c r="H219" s="54"/>
     </row>
-    <row r="220" spans="1:8" ht="13.5" customHeight="1">
+    <row r="220" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>787</v>
       </c>
@@ -12749,7 +12748,7 @@
       <c r="G220" s="6"/>
       <c r="H220" s="54"/>
     </row>
-    <row r="221" spans="1:8" ht="13.5" customHeight="1">
+    <row r="221" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>788</v>
       </c>
@@ -12763,7 +12762,7 @@
       <c r="G221" s="7"/>
       <c r="H221" s="55"/>
     </row>
-    <row r="222" spans="1:8" ht="13.5" customHeight="1">
+    <row r="222" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>789</v>
       </c>
@@ -12789,7 +12788,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="13.5" customHeight="1">
+    <row r="223" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>795</v>
       </c>
@@ -12807,7 +12806,7 @@
       <c r="G223" s="6"/>
       <c r="H223" s="54"/>
     </row>
-    <row r="224" spans="1:8" ht="13.5" customHeight="1">
+    <row r="224" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>797</v>
       </c>
@@ -12825,7 +12824,7 @@
       <c r="G224" s="6"/>
       <c r="H224" s="54"/>
     </row>
-    <row r="225" spans="1:8" ht="13.5" customHeight="1">
+    <row r="225" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>800</v>
       </c>
@@ -12839,7 +12838,7 @@
       <c r="G225" s="6"/>
       <c r="H225" s="54"/>
     </row>
-    <row r="226" spans="1:8" ht="13.5" customHeight="1">
+    <row r="226" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>801</v>
       </c>
@@ -12857,7 +12856,7 @@
       <c r="G226" s="6"/>
       <c r="H226" s="54"/>
     </row>
-    <row r="227" spans="1:8" ht="13.5" customHeight="1">
+    <row r="227" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>803</v>
       </c>
@@ -12875,7 +12874,7 @@
       <c r="G227" s="6"/>
       <c r="H227" s="54"/>
     </row>
-    <row r="228" spans="1:8" ht="13.5" customHeight="1">
+    <row r="228" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>806</v>
       </c>
@@ -12889,7 +12888,7 @@
       <c r="G228" s="6"/>
       <c r="H228" s="54"/>
     </row>
-    <row r="229" spans="1:8" ht="13.5" customHeight="1">
+    <row r="229" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>807</v>
       </c>
@@ -12907,7 +12906,7 @@
       <c r="G229" s="6"/>
       <c r="H229" s="54"/>
     </row>
-    <row r="230" spans="1:8" ht="13.5" customHeight="1">
+    <row r="230" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>810</v>
       </c>
@@ -12921,7 +12920,7 @@
       <c r="G230" s="6"/>
       <c r="H230" s="54"/>
     </row>
-    <row r="231" spans="1:8" ht="13.5" customHeight="1">
+    <row r="231" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>811</v>
       </c>
@@ -12943,7 +12942,7 @@
       <c r="G231" s="6"/>
       <c r="H231" s="54"/>
     </row>
-    <row r="232" spans="1:8" ht="13.5" customHeight="1">
+    <row r="232" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>814</v>
       </c>
@@ -12957,7 +12956,7 @@
       <c r="G232" s="6"/>
       <c r="H232" s="54"/>
     </row>
-    <row r="233" spans="1:8" ht="13.5" customHeight="1">
+    <row r="233" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>815</v>
       </c>
@@ -12975,7 +12974,7 @@
       <c r="G233" s="6"/>
       <c r="H233" s="54"/>
     </row>
-    <row r="234" spans="1:8" ht="13.5" customHeight="1">
+    <row r="234" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>818</v>
       </c>
@@ -12993,7 +12992,7 @@
       <c r="G234" s="6"/>
       <c r="H234" s="54"/>
     </row>
-    <row r="235" spans="1:8" ht="13.5" customHeight="1">
+    <row r="235" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>820</v>
       </c>
@@ -13011,7 +13010,7 @@
       <c r="G235" s="6"/>
       <c r="H235" s="54"/>
     </row>
-    <row r="236" spans="1:8" ht="13.5" customHeight="1">
+    <row r="236" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>822</v>
       </c>
@@ -13025,7 +13024,7 @@
       <c r="G236" s="6"/>
       <c r="H236" s="54"/>
     </row>
-    <row r="237" spans="1:8" ht="13.5" customHeight="1">
+    <row r="237" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>823</v>
       </c>
@@ -13043,7 +13042,7 @@
       <c r="G237" s="6"/>
       <c r="H237" s="54"/>
     </row>
-    <row r="238" spans="1:8" ht="13.5" customHeight="1">
+    <row r="238" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>826</v>
       </c>
@@ -13057,7 +13056,7 @@
       <c r="G238" s="6"/>
       <c r="H238" s="54"/>
     </row>
-    <row r="239" spans="1:8" ht="13.5" customHeight="1">
+    <row r="239" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>827</v>
       </c>
@@ -13071,7 +13070,7 @@
       <c r="G239" s="6"/>
       <c r="H239" s="54"/>
     </row>
-    <row r="240" spans="1:8" ht="13.5" customHeight="1">
+    <row r="240" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>828</v>
       </c>
@@ -13085,7 +13084,7 @@
       <c r="G240" s="6"/>
       <c r="H240" s="54"/>
     </row>
-    <row r="241" spans="1:8" ht="13.5" customHeight="1">
+    <row r="241" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>829</v>
       </c>
@@ -13099,7 +13098,7 @@
       <c r="G241" s="6"/>
       <c r="H241" s="54"/>
     </row>
-    <row r="242" spans="1:8" ht="13.5" customHeight="1">
+    <row r="242" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>830</v>
       </c>
@@ -13113,7 +13112,7 @@
       <c r="G242" s="7"/>
       <c r="H242" s="55"/>
     </row>
-    <row r="243" spans="1:8" ht="13.5" customHeight="1">
+    <row r="243" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>831</v>
       </c>
@@ -13139,7 +13138,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="13.5" customHeight="1">
+    <row r="244" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>837</v>
       </c>
@@ -13153,7 +13152,7 @@
       <c r="G244" s="6"/>
       <c r="H244" s="54"/>
     </row>
-    <row r="245" spans="1:8" ht="13.5" customHeight="1">
+    <row r="245" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>838</v>
       </c>
@@ -13167,7 +13166,7 @@
       <c r="G245" s="6"/>
       <c r="H245" s="54"/>
     </row>
-    <row r="246" spans="1:8" ht="13.5" customHeight="1">
+    <row r="246" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>839</v>
       </c>
@@ -13185,7 +13184,7 @@
       <c r="G246" s="6"/>
       <c r="H246" s="54"/>
     </row>
-    <row r="247" spans="1:8" ht="13.5" customHeight="1">
+    <row r="247" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>842</v>
       </c>
@@ -13199,7 +13198,7 @@
       <c r="G247" s="6"/>
       <c r="H247" s="54"/>
     </row>
-    <row r="248" spans="1:8" ht="13.5" customHeight="1">
+    <row r="248" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>843</v>
       </c>
@@ -13217,7 +13216,7 @@
       <c r="G248" s="6"/>
       <c r="H248" s="54"/>
     </row>
-    <row r="249" spans="1:8" ht="13.5" customHeight="1">
+    <row r="249" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>846</v>
       </c>
@@ -13231,7 +13230,7 @@
       <c r="G249" s="6"/>
       <c r="H249" s="54"/>
     </row>
-    <row r="250" spans="1:8" ht="13.5" customHeight="1">
+    <row r="250" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>847</v>
       </c>
@@ -13253,7 +13252,7 @@
       <c r="G250" s="6"/>
       <c r="H250" s="54"/>
     </row>
-    <row r="251" spans="1:8" ht="13.5" customHeight="1">
+    <row r="251" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>851</v>
       </c>
@@ -13267,7 +13266,7 @@
       <c r="G251" s="6"/>
       <c r="H251" s="54"/>
     </row>
-    <row r="252" spans="1:8" ht="13.5" customHeight="1">
+    <row r="252" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>852</v>
       </c>
@@ -13281,7 +13280,7 @@
       <c r="G252" s="6"/>
       <c r="H252" s="54"/>
     </row>
-    <row r="253" spans="1:8" ht="13.5" customHeight="1">
+    <row r="253" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>853</v>
       </c>
@@ -13303,7 +13302,7 @@
       <c r="G253" s="6"/>
       <c r="H253" s="54"/>
     </row>
-    <row r="254" spans="1:8" ht="13.5" customHeight="1">
+    <row r="254" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>857</v>
       </c>
@@ -13321,7 +13320,7 @@
       <c r="G254" s="6"/>
       <c r="H254" s="54"/>
     </row>
-    <row r="255" spans="1:8" ht="13.5" customHeight="1">
+    <row r="255" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>859</v>
       </c>
@@ -13339,7 +13338,7 @@
       <c r="G255" s="6"/>
       <c r="H255" s="54"/>
     </row>
-    <row r="256" spans="1:8" ht="13.5" customHeight="1">
+    <row r="256" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>861</v>
       </c>
@@ -13353,7 +13352,7 @@
       <c r="G256" s="7"/>
       <c r="H256" s="55"/>
     </row>
-    <row r="257" spans="1:8" ht="13.5" customHeight="1">
+    <row r="257" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>862</v>
       </c>
@@ -13379,7 +13378,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="13.5" customHeight="1">
+    <row r="258" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>868</v>
       </c>
@@ -13393,7 +13392,7 @@
       <c r="G258" s="6"/>
       <c r="H258" s="54"/>
     </row>
-    <row r="259" spans="1:8" ht="13.5" customHeight="1">
+    <row r="259" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>869</v>
       </c>
@@ -13407,7 +13406,7 @@
       <c r="G259" s="6"/>
       <c r="H259" s="54"/>
     </row>
-    <row r="260" spans="1:8" ht="13.5" customHeight="1">
+    <row r="260" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>870</v>
       </c>
@@ -13425,7 +13424,7 @@
       <c r="G260" s="6"/>
       <c r="H260" s="54"/>
     </row>
-    <row r="261" spans="1:8" ht="13.5" customHeight="1">
+    <row r="261" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>872</v>
       </c>
@@ -13439,7 +13438,7 @@
       <c r="G261" s="6"/>
       <c r="H261" s="54"/>
     </row>
-    <row r="262" spans="1:8" ht="13.5" customHeight="1">
+    <row r="262" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>873</v>
       </c>
@@ -13453,7 +13452,7 @@
       <c r="G262" s="6"/>
       <c r="H262" s="54"/>
     </row>
-    <row r="263" spans="1:8" ht="13.5" customHeight="1">
+    <row r="263" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>874</v>
       </c>
@@ -13467,7 +13466,7 @@
       <c r="G263" s="6"/>
       <c r="H263" s="54"/>
     </row>
-    <row r="264" spans="1:8" ht="13.5" customHeight="1">
+    <row r="264" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>875</v>
       </c>
@@ -13481,7 +13480,7 @@
       <c r="G264" s="6"/>
       <c r="H264" s="54"/>
     </row>
-    <row r="265" spans="1:8" ht="13.5" customHeight="1">
+    <row r="265" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>876</v>
       </c>
@@ -13495,7 +13494,7 @@
       <c r="G265" s="6"/>
       <c r="H265" s="54"/>
     </row>
-    <row r="266" spans="1:8" ht="13.5" customHeight="1">
+    <row r="266" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>877</v>
       </c>
@@ -13509,7 +13508,7 @@
       <c r="G266" s="7"/>
       <c r="H266" s="55"/>
     </row>
-    <row r="267" spans="1:8" ht="13.5" customHeight="1">
+    <row r="267" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>878</v>
       </c>
@@ -13535,7 +13534,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="13.5" customHeight="1">
+    <row r="268" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>884</v>
       </c>
@@ -13549,7 +13548,7 @@
       <c r="G268" s="7"/>
       <c r="H268" s="55"/>
     </row>
-    <row r="269" spans="1:8" ht="13.5" customHeight="1">
+    <row r="269" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>885</v>
       </c>
@@ -13575,7 +13574,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="13.5" customHeight="1">
+    <row r="270" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>890</v>
       </c>
@@ -13589,7 +13588,7 @@
       <c r="G270" s="6"/>
       <c r="H270" s="54"/>
     </row>
-    <row r="271" spans="1:8" ht="13.5" customHeight="1">
+    <row r="271" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>891</v>
       </c>
@@ -13603,7 +13602,7 @@
       <c r="G271" s="6"/>
       <c r="H271" s="54"/>
     </row>
-    <row r="272" spans="1:8" ht="13.5" customHeight="1">
+    <row r="272" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>892</v>
       </c>
@@ -13617,7 +13616,7 @@
       <c r="G272" s="6"/>
       <c r="H272" s="54"/>
     </row>
-    <row r="273" spans="1:8" ht="13.5" customHeight="1">
+    <row r="273" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>893</v>
       </c>
@@ -13631,7 +13630,7 @@
       <c r="G273" s="6"/>
       <c r="H273" s="54"/>
     </row>
-    <row r="274" spans="1:8" ht="13.5" customHeight="1">
+    <row r="274" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>894</v>
       </c>
@@ -13653,7 +13652,7 @@
       <c r="G274" s="6"/>
       <c r="H274" s="54"/>
     </row>
-    <row r="275" spans="1:8" ht="13.5" customHeight="1">
+    <row r="275" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>898</v>
       </c>
@@ -13671,7 +13670,7 @@
       <c r="G275" s="7"/>
       <c r="H275" s="55"/>
     </row>
-    <row r="276" spans="1:8" ht="13.5" customHeight="1">
+    <row r="276" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>900</v>
       </c>
@@ -13697,7 +13696,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="13.5" customHeight="1">
+    <row r="277" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>904</v>
       </c>
@@ -13719,7 +13718,7 @@
       <c r="G277" s="6"/>
       <c r="H277" s="54"/>
     </row>
-    <row r="278" spans="1:8" ht="13.5" customHeight="1">
+    <row r="278" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>908</v>
       </c>
@@ -13733,7 +13732,7 @@
       <c r="G278" s="6"/>
       <c r="H278" s="54"/>
     </row>
-    <row r="279" spans="1:8" ht="13.5" customHeight="1">
+    <row r="279" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>909</v>
       </c>
@@ -13755,7 +13754,7 @@
       <c r="G279" s="6"/>
       <c r="H279" s="54"/>
     </row>
-    <row r="280" spans="1:8" ht="13.5" customHeight="1">
+    <row r="280" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>912</v>
       </c>
@@ -13769,7 +13768,7 @@
       <c r="G280" s="6"/>
       <c r="H280" s="54"/>
     </row>
-    <row r="281" spans="1:8" ht="13.5" customHeight="1">
+    <row r="281" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>913</v>
       </c>
@@ -13787,7 +13786,7 @@
       <c r="G281" s="7"/>
       <c r="H281" s="55"/>
     </row>
-    <row r="282" spans="1:8" ht="13.5" customHeight="1">
+    <row r="282" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>915</v>
       </c>
@@ -13813,7 +13812,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="13.5" customHeight="1">
+    <row r="283" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>919</v>
       </c>
@@ -13831,7 +13830,7 @@
       <c r="G283" s="6"/>
       <c r="H283" s="54"/>
     </row>
-    <row r="284" spans="1:8" ht="13.5" customHeight="1">
+    <row r="284" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>921</v>
       </c>
@@ -13849,7 +13848,7 @@
       <c r="G284" s="6"/>
       <c r="H284" s="54"/>
     </row>
-    <row r="285" spans="1:8" ht="13.5" customHeight="1">
+    <row r="285" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>923</v>
       </c>
@@ -13871,7 +13870,7 @@
       <c r="G285" s="6"/>
       <c r="H285" s="54"/>
     </row>
-    <row r="286" spans="1:8" ht="13.5" customHeight="1">
+    <row r="286" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>927</v>
       </c>
@@ -13885,7 +13884,7 @@
       <c r="G286" s="6"/>
       <c r="H286" s="54"/>
     </row>
-    <row r="287" spans="1:8" ht="13.5" customHeight="1">
+    <row r="287" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>928</v>
       </c>
@@ -13899,7 +13898,7 @@
       <c r="G287" s="6"/>
       <c r="H287" s="54"/>
     </row>
-    <row r="288" spans="1:8" ht="13.5" customHeight="1">
+    <row r="288" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>929</v>
       </c>
@@ -13917,7 +13916,7 @@
       <c r="G288" s="6"/>
       <c r="H288" s="54"/>
     </row>
-    <row r="289" spans="1:8" ht="13.5" customHeight="1">
+    <row r="289" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>932</v>
       </c>
@@ -13931,7 +13930,7 @@
       <c r="G289" s="6"/>
       <c r="H289" s="54"/>
     </row>
-    <row r="290" spans="1:8" ht="13.5" customHeight="1">
+    <row r="290" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>933</v>
       </c>
@@ -13945,7 +13944,7 @@
       <c r="G290" s="6"/>
       <c r="H290" s="54"/>
     </row>
-    <row r="291" spans="1:8" ht="13.5" customHeight="1">
+    <row r="291" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>934</v>
       </c>
@@ -13959,7 +13958,7 @@
       <c r="G291" s="6"/>
       <c r="H291" s="54"/>
     </row>
-    <row r="292" spans="1:8" ht="13.5" customHeight="1">
+    <row r="292" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>935</v>
       </c>
@@ -13977,7 +13976,7 @@
       <c r="G292" s="6"/>
       <c r="H292" s="54"/>
     </row>
-    <row r="293" spans="1:8" ht="13.5" customHeight="1">
+    <row r="293" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>938</v>
       </c>
@@ -13991,7 +13990,7 @@
       <c r="G293" s="6"/>
       <c r="H293" s="54"/>
     </row>
-    <row r="294" spans="1:8" ht="13.5" customHeight="1">
+    <row r="294" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>939</v>
       </c>
@@ -14005,7 +14004,7 @@
       <c r="G294" s="6"/>
       <c r="H294" s="54"/>
     </row>
-    <row r="295" spans="1:8" ht="13.5" customHeight="1">
+    <row r="295" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>940</v>
       </c>
@@ -14019,7 +14018,7 @@
       <c r="G295" s="6"/>
       <c r="H295" s="54"/>
     </row>
-    <row r="296" spans="1:8" ht="13.5" customHeight="1">
+    <row r="296" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>941</v>
       </c>
@@ -14037,7 +14036,7 @@
       <c r="G296" s="7"/>
       <c r="H296" s="55"/>
     </row>
-    <row r="297" spans="1:8" ht="13.5" customHeight="1">
+    <row r="297" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>943</v>
       </c>
@@ -14063,7 +14062,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="13.5" customHeight="1">
+    <row r="298" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>947</v>
       </c>
@@ -14089,7 +14088,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="13.5" customHeight="1">
+    <row r="299" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>952</v>
       </c>
@@ -14107,7 +14106,7 @@
       <c r="G299" s="6"/>
       <c r="H299" s="54"/>
     </row>
-    <row r="300" spans="1:8" ht="13.5" customHeight="1">
+    <row r="300" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>955</v>
       </c>
@@ -14121,7 +14120,7 @@
       <c r="G300" s="6"/>
       <c r="H300" s="54"/>
     </row>
-    <row r="301" spans="1:8" ht="13.5" customHeight="1">
+    <row r="301" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>956</v>
       </c>
@@ -14143,7 +14142,7 @@
       <c r="G301" s="6"/>
       <c r="H301" s="54"/>
     </row>
-    <row r="302" spans="1:8" ht="13.5" customHeight="1">
+    <row r="302" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>960</v>
       </c>
@@ -14157,7 +14156,7 @@
       <c r="G302" s="6"/>
       <c r="H302" s="54"/>
     </row>
-    <row r="303" spans="1:8" ht="13.5" customHeight="1">
+    <row r="303" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>961</v>
       </c>
@@ -14179,7 +14178,7 @@
       <c r="G303" s="6"/>
       <c r="H303" s="54"/>
     </row>
-    <row r="304" spans="1:8" ht="13.5" customHeight="1">
+    <row r="304" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>964</v>
       </c>
@@ -14201,7 +14200,7 @@
       <c r="G304" s="6"/>
       <c r="H304" s="54"/>
     </row>
-    <row r="305" spans="1:8" ht="13.5" customHeight="1">
+    <row r="305" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>967</v>
       </c>
@@ -14215,7 +14214,7 @@
       <c r="G305" s="6"/>
       <c r="H305" s="54"/>
     </row>
-    <row r="306" spans="1:8" ht="13.5" customHeight="1">
+    <row r="306" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>968</v>
       </c>
@@ -14229,7 +14228,7 @@
       <c r="G306" s="6"/>
       <c r="H306" s="54"/>
     </row>
-    <row r="307" spans="1:8" ht="13.5" customHeight="1">
+    <row r="307" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>969</v>
       </c>
@@ -14247,7 +14246,7 @@
       <c r="G307" s="6"/>
       <c r="H307" s="54"/>
     </row>
-    <row r="308" spans="1:8" ht="13.5" customHeight="1">
+    <row r="308" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>971</v>
       </c>
@@ -14265,7 +14264,7 @@
       <c r="G308" s="6"/>
       <c r="H308" s="54"/>
     </row>
-    <row r="309" spans="1:8" ht="13.5" customHeight="1">
+    <row r="309" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>973</v>
       </c>
@@ -14283,7 +14282,7 @@
       <c r="G309" s="6"/>
       <c r="H309" s="54"/>
     </row>
-    <row r="310" spans="1:8" ht="13.5" customHeight="1">
+    <row r="310" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>975</v>
       </c>
@@ -14305,7 +14304,7 @@
       <c r="G310" s="6"/>
       <c r="H310" s="54"/>
     </row>
-    <row r="311" spans="1:8" ht="13.5" customHeight="1">
+    <row r="311" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>979</v>
       </c>
@@ -14323,7 +14322,7 @@
       <c r="G311" s="7"/>
       <c r="H311" s="55"/>
     </row>
-    <row r="312" spans="1:8" ht="13.5" customHeight="1">
+    <row r="312" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>981</v>
       </c>
@@ -14349,7 +14348,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="13.5" customHeight="1">
+    <row r="313" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>985</v>
       </c>
@@ -14363,7 +14362,7 @@
       <c r="G313" s="6"/>
       <c r="H313" s="54"/>
     </row>
-    <row r="314" spans="1:8" ht="13.5" customHeight="1">
+    <row r="314" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>986</v>
       </c>
@@ -14377,7 +14376,7 @@
       <c r="G314" s="6"/>
       <c r="H314" s="54"/>
     </row>
-    <row r="315" spans="1:8" ht="13.5" customHeight="1">
+    <row r="315" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>987</v>
       </c>
@@ -14391,7 +14390,7 @@
       <c r="G315" s="6"/>
       <c r="H315" s="54"/>
     </row>
-    <row r="316" spans="1:8" ht="13.5" customHeight="1">
+    <row r="316" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>988</v>
       </c>
@@ -14409,7 +14408,7 @@
       <c r="G316" s="7"/>
       <c r="H316" s="55"/>
     </row>
-    <row r="317" spans="1:8" ht="13.5" customHeight="1">
+    <row r="317" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>991</v>
       </c>
@@ -14435,7 +14434,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="13.5" customHeight="1">
+    <row r="318" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>995</v>
       </c>
@@ -14449,7 +14448,7 @@
       <c r="G318" s="6"/>
       <c r="H318" s="54"/>
     </row>
-    <row r="319" spans="1:8" ht="13.5" customHeight="1">
+    <row r="319" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>996</v>
       </c>
@@ -14467,7 +14466,7 @@
       <c r="G319" s="6"/>
       <c r="H319" s="54"/>
     </row>
-    <row r="320" spans="1:8" ht="13.5" customHeight="1">
+    <row r="320" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>998</v>
       </c>
@@ -14481,7 +14480,7 @@
       <c r="G320" s="6"/>
       <c r="H320" s="54"/>
     </row>
-    <row r="321" spans="1:8" ht="13.5" customHeight="1">
+    <row r="321" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>999</v>
       </c>
@@ -14503,7 +14502,7 @@
       <c r="G321" s="6"/>
       <c r="H321" s="54"/>
     </row>
-    <row r="322" spans="1:8" ht="13.5" customHeight="1">
+    <row r="322" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>1003</v>
       </c>
@@ -14517,7 +14516,7 @@
       <c r="G322" s="6"/>
       <c r="H322" s="54"/>
     </row>
-    <row r="323" spans="1:8" ht="13.5" customHeight="1">
+    <row r="323" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>1004</v>
       </c>
@@ -14539,7 +14538,7 @@
       <c r="G323" s="6"/>
       <c r="H323" s="54"/>
     </row>
-    <row r="324" spans="1:8" ht="13.5" customHeight="1">
+    <row r="324" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>1008</v>
       </c>
@@ -14561,7 +14560,7 @@
       <c r="G324" s="6"/>
       <c r="H324" s="54"/>
     </row>
-    <row r="325" spans="1:8" ht="13.5" customHeight="1">
+    <row r="325" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>1012</v>
       </c>
@@ -14575,7 +14574,7 @@
       <c r="G325" s="6"/>
       <c r="H325" s="54"/>
     </row>
-    <row r="326" spans="1:8" ht="13.5" customHeight="1">
+    <row r="326" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>1013</v>
       </c>
@@ -14593,7 +14592,7 @@
       <c r="G326" s="6"/>
       <c r="H326" s="54"/>
     </row>
-    <row r="327" spans="1:8" ht="13.5" customHeight="1">
+    <row r="327" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>1015</v>
       </c>
@@ -14615,7 +14614,7 @@
       <c r="G327" s="6"/>
       <c r="H327" s="54"/>
     </row>
-    <row r="328" spans="1:8" ht="13.5" customHeight="1">
+    <row r="328" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>1019</v>
       </c>
@@ -14637,7 +14636,7 @@
       <c r="G328" s="6"/>
       <c r="H328" s="54"/>
     </row>
-    <row r="329" spans="1:8" ht="13.5" customHeight="1">
+    <row r="329" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>1022</v>
       </c>
@@ -14651,7 +14650,7 @@
       <c r="G329" s="7"/>
       <c r="H329" s="55"/>
     </row>
-    <row r="330" spans="1:8" ht="13.5" customHeight="1">
+    <row r="330" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>1023</v>
       </c>
@@ -14677,7 +14676,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="13.5" customHeight="1">
+    <row r="331" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>1027</v>
       </c>
@@ -14695,7 +14694,7 @@
       <c r="G331" s="6"/>
       <c r="H331" s="54"/>
     </row>
-    <row r="332" spans="1:8" ht="13.5" customHeight="1">
+    <row r="332" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>1029</v>
       </c>
@@ -14709,7 +14708,7 @@
       <c r="G332" s="6"/>
       <c r="H332" s="54"/>
     </row>
-    <row r="333" spans="1:8" ht="13.5" customHeight="1">
+    <row r="333" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>1030</v>
       </c>
@@ -14731,7 +14730,7 @@
       <c r="G333" s="6"/>
       <c r="H333" s="54"/>
     </row>
-    <row r="334" spans="1:8" ht="13.5" customHeight="1">
+    <row r="334" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>1033</v>
       </c>
@@ -14745,7 +14744,7 @@
       <c r="G334" s="6"/>
       <c r="H334" s="54"/>
     </row>
-    <row r="335" spans="1:8" ht="13.5" customHeight="1">
+    <row r="335" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>1035</v>
       </c>
@@ -14759,7 +14758,7 @@
       <c r="G335" s="6"/>
       <c r="H335" s="54"/>
     </row>
-    <row r="336" spans="1:8" ht="13.5" customHeight="1">
+    <row r="336" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>1036</v>
       </c>
@@ -14781,7 +14780,7 @@
       <c r="G336" s="7"/>
       <c r="H336" s="55"/>
     </row>
-    <row r="337" spans="1:8" ht="13.5" customHeight="1">
+    <row r="337" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>1039</v>
       </c>
@@ -14807,7 +14806,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="13.5" customHeight="1">
+    <row r="338" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>1043</v>
       </c>
@@ -14829,7 +14828,7 @@
       <c r="G338" s="6"/>
       <c r="H338" s="54"/>
     </row>
-    <row r="339" spans="1:8" ht="13.5" customHeight="1">
+    <row r="339" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>1046</v>
       </c>
@@ -14843,7 +14842,7 @@
       <c r="G339" s="6"/>
       <c r="H339" s="54"/>
     </row>
-    <row r="340" spans="1:8" ht="13.5" customHeight="1">
+    <row r="340" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>1047</v>
       </c>
@@ -14861,7 +14860,7 @@
       <c r="G340" s="7"/>
       <c r="H340" s="55"/>
     </row>
-    <row r="341" spans="1:8" ht="13.5" customHeight="1">
+    <row r="341" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>1049</v>
       </c>
@@ -14887,7 +14886,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="13.5" customHeight="1">
+    <row r="342" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>1053</v>
       </c>
@@ -14901,7 +14900,7 @@
       <c r="G342" s="6"/>
       <c r="H342" s="54"/>
     </row>
-    <row r="343" spans="1:8" ht="13.5" customHeight="1">
+    <row r="343" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>1054</v>
       </c>
@@ -14915,7 +14914,7 @@
       <c r="G343" s="6"/>
       <c r="H343" s="54"/>
     </row>
-    <row r="344" spans="1:8" ht="13.5" customHeight="1">
+    <row r="344" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>1055</v>
       </c>
@@ -14929,7 +14928,7 @@
       <c r="G344" s="6"/>
       <c r="H344" s="54"/>
     </row>
-    <row r="345" spans="1:8" ht="13.5" customHeight="1">
+    <row r="345" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>1056</v>
       </c>
@@ -14951,7 +14950,7 @@
       <c r="G345" s="6"/>
       <c r="H345" s="54"/>
     </row>
-    <row r="346" spans="1:8" ht="13.5" customHeight="1">
+    <row r="346" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>1061</v>
       </c>
@@ -14965,7 +14964,7 @@
       <c r="G346" s="6"/>
       <c r="H346" s="54"/>
     </row>
-    <row r="347" spans="1:8" ht="13.5" customHeight="1">
+    <row r="347" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>1062</v>
       </c>
@@ -14983,7 +14982,7 @@
       <c r="G347" s="6"/>
       <c r="H347" s="54"/>
     </row>
-    <row r="348" spans="1:8" ht="13.5" customHeight="1">
+    <row r="348" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>1065</v>
       </c>
@@ -15005,7 +15004,7 @@
       <c r="G348" s="6"/>
       <c r="H348" s="54"/>
     </row>
-    <row r="349" spans="1:8" ht="13.5" customHeight="1">
+    <row r="349" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>1068</v>
       </c>
@@ -15023,7 +15022,7 @@
       <c r="G349" s="6"/>
       <c r="H349" s="54"/>
     </row>
-    <row r="350" spans="1:8" ht="13.5" customHeight="1">
+    <row r="350" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>1070</v>
       </c>
@@ -15037,7 +15036,7 @@
       <c r="G350" s="6"/>
       <c r="H350" s="54"/>
     </row>
-    <row r="351" spans="1:8" ht="13.5" customHeight="1">
+    <row r="351" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>1071</v>
       </c>
@@ -15051,7 +15050,7 @@
       <c r="G351" s="7"/>
       <c r="H351" s="55"/>
     </row>
-    <row r="352" spans="1:8" ht="13.5" customHeight="1">
+    <row r="352" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
         <v>1072</v>
       </c>
@@ -15077,7 +15076,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="13.5" customHeight="1">
+    <row r="353" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>1078</v>
       </c>
@@ -15099,7 +15098,7 @@
       <c r="G353" s="6"/>
       <c r="H353" s="54"/>
     </row>
-    <row r="354" spans="1:8" ht="13.5" customHeight="1">
+    <row r="354" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>1081</v>
       </c>
@@ -15117,7 +15116,7 @@
       <c r="G354" s="6"/>
       <c r="H354" s="54"/>
     </row>
-    <row r="355" spans="1:8" ht="13.5" customHeight="1">
+    <row r="355" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>1083</v>
       </c>
@@ -15135,7 +15134,7 @@
       <c r="G355" s="7"/>
       <c r="H355" s="55"/>
     </row>
-    <row r="356" spans="1:8" ht="13.5" customHeight="1">
+    <row r="356" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
         <v>1086</v>
       </c>
@@ -15161,7 +15160,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="13.5" customHeight="1">
+    <row r="357" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>1091</v>
       </c>
@@ -15175,7 +15174,7 @@
       <c r="G357" s="6"/>
       <c r="H357" s="54"/>
     </row>
-    <row r="358" spans="1:8" ht="13.5" customHeight="1">
+    <row r="358" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
         <v>1092</v>
       </c>
@@ -15193,7 +15192,7 @@
       <c r="G358" s="7"/>
       <c r="H358" s="55"/>
     </row>
-    <row r="359" spans="1:8" ht="13.5" customHeight="1">
+    <row r="359" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>1095</v>
       </c>
@@ -15219,7 +15218,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="13.5" customHeight="1">
+    <row r="360" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>1100</v>
       </c>
@@ -15233,7 +15232,7 @@
       <c r="G360" s="6"/>
       <c r="H360" s="54"/>
     </row>
-    <row r="361" spans="1:8" ht="13.5" customHeight="1">
+    <row r="361" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>1101</v>
       </c>
@@ -15247,7 +15246,7 @@
       <c r="G361" s="7"/>
       <c r="H361" s="55"/>
     </row>
-    <row r="362" spans="1:8" ht="13.5" customHeight="1">
+    <row r="362" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>1102</v>
       </c>
@@ -15273,7 +15272,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="13.5" customHeight="1">
+    <row r="363" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>1106</v>
       </c>
@@ -15287,7 +15286,7 @@
       <c r="G363" s="6"/>
       <c r="H363" s="54"/>
     </row>
-    <row r="364" spans="1:8" ht="13.5" customHeight="1">
+    <row r="364" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>1107</v>
       </c>
@@ -15301,7 +15300,7 @@
       <c r="G364" s="6"/>
       <c r="H364" s="54"/>
     </row>
-    <row r="365" spans="1:8" ht="13.5" customHeight="1">
+    <row r="365" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>1108</v>
       </c>
@@ -15323,7 +15322,7 @@
       <c r="G365" s="6"/>
       <c r="H365" s="54"/>
     </row>
-    <row r="366" spans="1:8" ht="13.5" customHeight="1">
+    <row r="366" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>1111</v>
       </c>
@@ -15337,7 +15336,7 @@
       <c r="G366" s="7"/>
       <c r="H366" s="55"/>
     </row>
-    <row r="367" spans="1:8" ht="13.5" customHeight="1">
+    <row r="367" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>1112</v>
       </c>
@@ -15363,7 +15362,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="13.5" customHeight="1">
+    <row r="368" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>1117</v>
       </c>
@@ -15377,7 +15376,7 @@
       <c r="G368" s="6"/>
       <c r="H368" s="54"/>
     </row>
-    <row r="369" spans="1:8" ht="13.5" customHeight="1">
+    <row r="369" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>1118</v>
       </c>
@@ -15391,7 +15390,7 @@
       <c r="G369" s="6"/>
       <c r="H369" s="54"/>
     </row>
-    <row r="370" spans="1:8" ht="13.5" customHeight="1">
+    <row r="370" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>1119</v>
       </c>
@@ -15405,7 +15404,7 @@
       <c r="G370" s="6"/>
       <c r="H370" s="54"/>
     </row>
-    <row r="371" spans="1:8" ht="13.5" customHeight="1">
+    <row r="371" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>1120</v>
       </c>
@@ -15427,7 +15426,7 @@
       <c r="G371" s="6"/>
       <c r="H371" s="54"/>
     </row>
-    <row r="372" spans="1:8" ht="13.5" customHeight="1">
+    <row r="372" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>1123</v>
       </c>
@@ -15441,7 +15440,7 @@
       <c r="G372" s="7"/>
       <c r="H372" s="55"/>
     </row>
-    <row r="373" spans="1:8" ht="13.5" customHeight="1">
+    <row r="373" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>1124</v>
       </c>
@@ -15467,7 +15466,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="13.5" customHeight="1">
+    <row r="374" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>1130</v>
       </c>
@@ -15481,7 +15480,7 @@
       <c r="G374" s="6"/>
       <c r="H374" s="54"/>
     </row>
-    <row r="375" spans="1:8" ht="13.5" customHeight="1">
+    <row r="375" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>1131</v>
       </c>
@@ -15503,7 +15502,7 @@
       <c r="G375" s="6"/>
       <c r="H375" s="54"/>
     </row>
-    <row r="376" spans="1:8" ht="13.5" customHeight="1">
+    <row r="376" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>1134</v>
       </c>
@@ -15517,7 +15516,7 @@
       <c r="G376" s="6"/>
       <c r="H376" s="54"/>
     </row>
-    <row r="377" spans="1:8" ht="13.5" customHeight="1">
+    <row r="377" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>1135</v>
       </c>
@@ -15535,7 +15534,7 @@
       <c r="G377" s="6"/>
       <c r="H377" s="54"/>
     </row>
-    <row r="378" spans="1:8" ht="13.5" customHeight="1">
+    <row r="378" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>1138</v>
       </c>
@@ -15549,7 +15548,7 @@
       <c r="G378" s="6"/>
       <c r="H378" s="54"/>
     </row>
-    <row r="379" spans="1:8" ht="13.5" customHeight="1">
+    <row r="379" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>1139</v>
       </c>
@@ -15563,7 +15562,7 @@
       <c r="G379" s="6"/>
       <c r="H379" s="54"/>
     </row>
-    <row r="380" spans="1:8" ht="13.5" customHeight="1">
+    <row r="380" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>1140</v>
       </c>
@@ -15577,7 +15576,7 @@
       <c r="G380" s="7"/>
       <c r="H380" s="55"/>
     </row>
-    <row r="381" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
+    <row r="381" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A381" s="3" t="s">
         <v>1141</v>
       </c>
@@ -15603,7 +15602,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="13.5" customHeight="1">
+    <row r="382" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="57" t="s">
         <v>2111</v>
       </c>
@@ -15629,7 +15628,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="13.5" customHeight="1">
+    <row r="383" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="64" t="s">
         <v>2113</v>
       </c>
@@ -15655,7 +15654,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="13.5" customHeight="1">
+    <row r="384" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="64" t="s">
         <v>2115</v>
       </c>
@@ -15681,7 +15680,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="385" spans="1:8" ht="13.5" customHeight="1">
+    <row r="385" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="64" t="s">
         <v>2117</v>
       </c>
@@ -15707,7 +15706,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="13.5" customHeight="1">
+    <row r="386" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="64" t="s">
         <v>2119</v>
       </c>
@@ -15733,7 +15732,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="13.5" customHeight="1">
+    <row r="387" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="64" t="s">
         <v>2121</v>
       </c>
@@ -15759,7 +15758,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="13.5" customHeight="1">
+    <row r="388" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="64" t="s">
         <v>2123</v>
       </c>
@@ -15785,7 +15784,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="13.5" customHeight="1">
+    <row r="389" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="64" t="s">
         <v>2125</v>
       </c>
@@ -15811,7 +15810,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="13.5" customHeight="1">
+    <row r="390" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="64" t="s">
         <v>2127</v>
       </c>
@@ -15837,7 +15836,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="13.5" customHeight="1">
+    <row r="391" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="64" t="s">
         <v>2129</v>
       </c>
@@ -15863,7 +15862,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="13.5" customHeight="1">
+    <row r="392" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="64" t="s">
         <v>2131</v>
       </c>
@@ -15889,7 +15888,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="13.5" customHeight="1">
+    <row r="393" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="64" t="s">
         <v>2133</v>
       </c>
@@ -15915,7 +15914,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="13.5" customHeight="1">
+    <row r="394" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="64" t="s">
         <v>2135</v>
       </c>
@@ -15941,7 +15940,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="13.5" customHeight="1">
+    <row r="395" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="64" t="s">
         <v>2137</v>
       </c>
@@ -15967,7 +15966,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="13.5" customHeight="1">
+    <row r="396" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="64" t="s">
         <v>2139</v>
       </c>
@@ -15993,7 +15992,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="13.5" customHeight="1">
+    <row r="397" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="64" t="s">
         <v>2141</v>
       </c>
@@ -16019,7 +16018,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="13.5" customHeight="1">
+    <row r="398" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="64" t="s">
         <v>2143</v>
       </c>
@@ -16045,7 +16044,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="13.5" customHeight="1">
+    <row r="399" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="71" t="s">
         <v>2145</v>
       </c>
@@ -16071,7 +16070,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="13.5" customHeight="1">
+    <row r="400" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="64" t="s">
         <v>2147</v>
       </c>
@@ -16097,7 +16096,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="13.5" customHeight="1">
+    <row r="401" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="64" t="s">
         <v>2149</v>
       </c>
@@ -16123,7 +16122,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="13.5" customHeight="1">
+    <row r="402" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="64" t="s">
         <v>2151</v>
       </c>
@@ -16149,7 +16148,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="13.5" customHeight="1">
+    <row r="403" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="64" t="s">
         <v>2153</v>
       </c>
@@ -16175,7 +16174,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="13.5" customHeight="1">
+    <row r="404" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="64" t="s">
         <v>2155</v>
       </c>
@@ -16201,7 +16200,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="13.5" customHeight="1">
+    <row r="405" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="64" t="s">
         <v>2157</v>
       </c>
@@ -16227,7 +16226,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="13.5" customHeight="1">
+    <row r="406" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="64" t="s">
         <v>2159</v>
       </c>
@@ -16253,7 +16252,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="13.5" customHeight="1">
+    <row r="407" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="78" t="s">
         <v>2161</v>
       </c>
@@ -16279,7 +16278,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="13.5" customHeight="1">
+    <row r="408" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="64" t="s">
         <v>2163</v>
       </c>
@@ -16305,7 +16304,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="13.5" customHeight="1">
+    <row r="409" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="64" t="s">
         <v>2165</v>
       </c>
@@ -16331,7 +16330,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="13.5" customHeight="1">
+    <row r="410" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="64" t="s">
         <v>2167</v>
       </c>
@@ -16357,7 +16356,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="13.5" customHeight="1">
+    <row r="411" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="64" t="s">
         <v>2169</v>
       </c>
@@ -16383,7 +16382,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
+    <row r="412" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A412" s="85" t="s">
         <v>2171</v>
       </c>
@@ -16424,7 +16423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
@@ -16436,52 +16435,52 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" style="52" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" style="52" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="52" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="35.6640625" style="52" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="35.625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.625" style="52" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="35.625" style="52" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="35.625" style="52" customWidth="1"/>
+    <col min="9" max="9" width="2.625" style="14" customWidth="1"/>
     <col min="10" max="10" width="9" style="14" customWidth="1"/>
     <col min="11" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="94" t="s">
         <v>2110</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="93"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="95"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="96" t="s">
         <v>1592</v>
       </c>
       <c r="B2" s="97"/>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="92" t="s">
         <v>1593</v>
       </c>
       <c r="D2" s="97"/>
-      <c r="E2" s="94" t="s">
+      <c r="E2" s="92" t="s">
         <v>1594</v>
       </c>
       <c r="F2" s="97"/>
-      <c r="G2" s="94" t="s">
+      <c r="G2" s="92" t="s">
         <v>1595</v>
       </c>
-      <c r="H2" s="95"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="H2" s="93"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>280</v>
       </c>
@@ -16507,7 +16506,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13.5" customHeight="1">
+    <row r="4" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>1267</v>
       </c>
@@ -16533,7 +16532,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13.5" customHeight="1">
+    <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>385</v>
       </c>
@@ -16551,7 +16550,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:8" ht="13.5" customHeight="1">
+    <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>1268</v>
       </c>
@@ -16565,7 +16564,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="1:8" ht="13.5" customHeight="1">
+    <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>1270</v>
       </c>
@@ -16583,7 +16582,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="1:8" ht="13.5" customHeight="1">
+    <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>1273</v>
       </c>
@@ -16601,7 +16600,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="27"/>
     </row>
-    <row r="9" spans="1:8" ht="13.5" customHeight="1">
+    <row r="9" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>1274</v>
       </c>
@@ -16615,7 +16614,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="27"/>
     </row>
-    <row r="10" spans="1:8" ht="13.5" customHeight="1">
+    <row r="10" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>1275</v>
       </c>
@@ -16629,7 +16628,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:8" ht="13.5" customHeight="1">
+    <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>1276</v>
       </c>
@@ -16643,7 +16642,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="1:8" ht="13.5" customHeight="1">
+    <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>1278</v>
       </c>
@@ -16661,7 +16660,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="27"/>
     </row>
-    <row r="13" spans="1:8" ht="13.5" customHeight="1">
+    <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>1457</v>
       </c>
@@ -16679,7 +16678,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="27"/>
     </row>
-    <row r="14" spans="1:8" ht="13.5" customHeight="1">
+    <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>1459</v>
       </c>
@@ -16701,7 +16700,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="27"/>
     </row>
-    <row r="15" spans="1:8" ht="13.5" customHeight="1">
+    <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>1281</v>
       </c>
@@ -16723,7 +16722,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:8" ht="13.5" customHeight="1">
+    <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>1460</v>
       </c>
@@ -16741,7 +16740,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8" ht="13.5" customHeight="1">
+    <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>1463</v>
       </c>
@@ -16767,7 +16766,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.5" customHeight="1">
+    <row r="18" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>1465</v>
       </c>
@@ -16785,7 +16784,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="1:8" ht="13.5" customHeight="1">
+    <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>1468</v>
       </c>
@@ -16807,7 +16806,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="27"/>
     </row>
-    <row r="20" spans="1:8" ht="13.5" customHeight="1">
+    <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>1471</v>
       </c>
@@ -16829,7 +16828,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="27"/>
     </row>
-    <row r="21" spans="1:8" ht="13.5" customHeight="1">
+    <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>1473</v>
       </c>
@@ -16847,7 +16846,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="1:8" ht="13.5" customHeight="1">
+    <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>1475</v>
       </c>
@@ -16873,7 +16872,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.5" customHeight="1">
+    <row r="23" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>1476</v>
       </c>
@@ -16887,7 +16886,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="27"/>
     </row>
-    <row r="24" spans="1:8" ht="13.5" customHeight="1">
+    <row r="24" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>1478</v>
       </c>
@@ -16905,7 +16904,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="27"/>
     </row>
-    <row r="25" spans="1:8" ht="13.5" customHeight="1">
+    <row r="25" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>1480</v>
       </c>
@@ -16923,7 +16922,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="27"/>
     </row>
-    <row r="26" spans="1:8" ht="13.5" customHeight="1">
+    <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>1482</v>
       </c>
@@ -16941,7 +16940,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="27"/>
     </row>
-    <row r="27" spans="1:8" ht="13.5" customHeight="1">
+    <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>1483</v>
       </c>
@@ -16955,7 +16954,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="27"/>
     </row>
-    <row r="28" spans="1:8" ht="13.5" customHeight="1">
+    <row r="28" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>1484</v>
       </c>
@@ -16969,7 +16968,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="27"/>
     </row>
-    <row r="29" spans="1:8" ht="13.5" customHeight="1">
+    <row r="29" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>1597</v>
       </c>
@@ -16987,7 +16986,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="27"/>
     </row>
-    <row r="30" spans="1:8" ht="13.5" customHeight="1">
+    <row r="30" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>1598</v>
       </c>
@@ -17005,7 +17004,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="27"/>
     </row>
-    <row r="31" spans="1:8" ht="13.5" customHeight="1">
+    <row r="31" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>1599</v>
       </c>
@@ -17019,7 +17018,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="27"/>
     </row>
-    <row r="32" spans="1:8" ht="13.5" customHeight="1">
+    <row r="32" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>1600</v>
       </c>
@@ -17033,7 +17032,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="27"/>
     </row>
-    <row r="33" spans="1:8" ht="13.5" customHeight="1">
+    <row r="33" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>1601</v>
       </c>
@@ -17051,7 +17050,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="27"/>
     </row>
-    <row r="34" spans="1:8" ht="13.5" customHeight="1">
+    <row r="34" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>1602</v>
       </c>
@@ -17065,7 +17064,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="27"/>
     </row>
-    <row r="35" spans="1:8" ht="13.5" customHeight="1">
+    <row r="35" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>1603</v>
       </c>
@@ -17083,7 +17082,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="27"/>
     </row>
-    <row r="36" spans="1:8" ht="13.5" customHeight="1">
+    <row r="36" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>1604</v>
       </c>
@@ -17097,7 +17096,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="27"/>
     </row>
-    <row r="37" spans="1:8" ht="13.5" customHeight="1">
+    <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>1605</v>
       </c>
@@ -17111,7 +17110,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="27"/>
     </row>
-    <row r="38" spans="1:8" ht="13.5" customHeight="1">
+    <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>1606</v>
       </c>
@@ -17125,7 +17124,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="27"/>
     </row>
-    <row r="39" spans="1:8" ht="13.5" customHeight="1">
+    <row r="39" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>1607</v>
       </c>
@@ -17143,7 +17142,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="27"/>
     </row>
-    <row r="40" spans="1:8" ht="13.5" customHeight="1">
+    <row r="40" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>1608</v>
       </c>
@@ -17165,7 +17164,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="27"/>
     </row>
-    <row r="41" spans="1:8" ht="13.5" customHeight="1">
+    <row r="41" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>1609</v>
       </c>
@@ -17179,7 +17178,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="27"/>
     </row>
-    <row r="42" spans="1:8" ht="13.5" customHeight="1">
+    <row r="42" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>1610</v>
       </c>
@@ -17193,7 +17192,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="27"/>
     </row>
-    <row r="43" spans="1:8" ht="13.5" customHeight="1">
+    <row r="43" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>1611</v>
       </c>
@@ -17211,7 +17210,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="27"/>
     </row>
-    <row r="44" spans="1:8" ht="13.5" customHeight="1">
+    <row r="44" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>1612</v>
       </c>
@@ -17233,7 +17232,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="27"/>
     </row>
-    <row r="45" spans="1:8" ht="13.5" customHeight="1">
+    <row r="45" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>1613</v>
       </c>
@@ -17259,7 +17258,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.5" customHeight="1">
+    <row r="46" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>1288</v>
       </c>
@@ -17273,7 +17272,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="27"/>
     </row>
-    <row r="47" spans="1:8" ht="13.5" customHeight="1">
+    <row r="47" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>1289</v>
       </c>
@@ -17291,7 +17290,7 @@
       <c r="G47" s="6"/>
       <c r="H47" s="27"/>
     </row>
-    <row r="48" spans="1:8" ht="13.5" customHeight="1">
+    <row r="48" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>1614</v>
       </c>
@@ -17309,7 +17308,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="27"/>
     </row>
-    <row r="49" spans="1:8" ht="13.5" customHeight="1">
+    <row r="49" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>1615</v>
       </c>
@@ -17323,7 +17322,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="27"/>
     </row>
-    <row r="50" spans="1:8" ht="13.5" customHeight="1">
+    <row r="50" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>1616</v>
       </c>
@@ -17337,7 +17336,7 @@
       <c r="G50" s="6"/>
       <c r="H50" s="27"/>
     </row>
-    <row r="51" spans="1:8" ht="13.5" customHeight="1">
+    <row r="51" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>1617</v>
       </c>
@@ -17359,7 +17358,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="27"/>
     </row>
-    <row r="52" spans="1:8" ht="13.5" customHeight="1">
+    <row r="52" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>1618</v>
       </c>
@@ -17373,7 +17372,7 @@
       <c r="G52" s="6"/>
       <c r="H52" s="27"/>
     </row>
-    <row r="53" spans="1:8" ht="13.5" customHeight="1">
+    <row r="53" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>1619</v>
       </c>
@@ -17387,7 +17386,7 @@
       <c r="G53" s="6"/>
       <c r="H53" s="27"/>
     </row>
-    <row r="54" spans="1:8" ht="13.5" customHeight="1">
+    <row r="54" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>1620</v>
       </c>
@@ -17409,7 +17408,7 @@
       <c r="G54" s="6"/>
       <c r="H54" s="27"/>
     </row>
-    <row r="55" spans="1:8" ht="13.5" customHeight="1">
+    <row r="55" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>1290</v>
       </c>
@@ -17423,7 +17422,7 @@
       <c r="G55" s="6"/>
       <c r="H55" s="27"/>
     </row>
-    <row r="56" spans="1:8" ht="13.5" customHeight="1">
+    <row r="56" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>1621</v>
       </c>
@@ -17449,7 +17448,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="13.5" customHeight="1">
+    <row r="57" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>1622</v>
       </c>
@@ -17467,7 +17466,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="27"/>
     </row>
-    <row r="58" spans="1:8" ht="13.5" customHeight="1">
+    <row r="58" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>1623</v>
       </c>
@@ -17481,7 +17480,7 @@
       <c r="G58" s="6"/>
       <c r="H58" s="27"/>
     </row>
-    <row r="59" spans="1:8" ht="13.5" customHeight="1">
+    <row r="59" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>1624</v>
       </c>
@@ -17495,7 +17494,7 @@
       <c r="G59" s="6"/>
       <c r="H59" s="27"/>
     </row>
-    <row r="60" spans="1:8" ht="13.5" customHeight="1">
+    <row r="60" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>1625</v>
       </c>
@@ -17517,7 +17516,7 @@
       <c r="G60" s="6"/>
       <c r="H60" s="27"/>
     </row>
-    <row r="61" spans="1:8" ht="13.5" customHeight="1">
+    <row r="61" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>1626</v>
       </c>
@@ -17531,7 +17530,7 @@
       <c r="G61" s="6"/>
       <c r="H61" s="27"/>
     </row>
-    <row r="62" spans="1:8" ht="13.5" customHeight="1">
+    <row r="62" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>1627</v>
       </c>
@@ -17545,7 +17544,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="27"/>
     </row>
-    <row r="63" spans="1:8" ht="13.5" customHeight="1">
+    <row r="63" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>1628</v>
       </c>
@@ -17563,7 +17562,7 @@
       <c r="G63" s="6"/>
       <c r="H63" s="27"/>
     </row>
-    <row r="64" spans="1:8" ht="13.5" customHeight="1">
+    <row r="64" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>1629</v>
       </c>
@@ -17577,7 +17576,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="27"/>
     </row>
-    <row r="65" spans="1:8" ht="13.5" customHeight="1">
+    <row r="65" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>1630</v>
       </c>
@@ -17591,7 +17590,7 @@
       <c r="G65" s="6"/>
       <c r="H65" s="27"/>
     </row>
-    <row r="66" spans="1:8" ht="13.5" customHeight="1">
+    <row r="66" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>1631</v>
       </c>
@@ -17613,7 +17612,7 @@
       <c r="G66" s="6"/>
       <c r="H66" s="27"/>
     </row>
-    <row r="67" spans="1:8" ht="13.5" customHeight="1">
+    <row r="67" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>1292</v>
       </c>
@@ -17627,7 +17626,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="42"/>
     </row>
-    <row r="68" spans="1:8" ht="13.5" customHeight="1">
+    <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>1632</v>
       </c>
@@ -17653,7 +17652,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="13.5" customHeight="1">
+    <row r="69" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>1633</v>
       </c>
@@ -17671,7 +17670,7 @@
       <c r="G69" s="6"/>
       <c r="H69" s="27"/>
     </row>
-    <row r="70" spans="1:8" ht="13.5" customHeight="1">
+    <row r="70" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>1634</v>
       </c>
@@ -17685,7 +17684,7 @@
       <c r="G70" s="6"/>
       <c r="H70" s="27"/>
     </row>
-    <row r="71" spans="1:8" ht="13.5" customHeight="1">
+    <row r="71" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>1635</v>
       </c>
@@ -17711,7 +17710,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="13.5" customHeight="1">
+    <row r="72" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>1293</v>
       </c>
@@ -17725,7 +17724,7 @@
       <c r="G72" s="6"/>
       <c r="H72" s="27"/>
     </row>
-    <row r="73" spans="1:8" ht="13.5" customHeight="1">
+    <row r="73" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>1636</v>
       </c>
@@ -17743,7 +17742,7 @@
       <c r="G73" s="6"/>
       <c r="H73" s="27"/>
     </row>
-    <row r="74" spans="1:8" ht="13.5" customHeight="1">
+    <row r="74" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>1637</v>
       </c>
@@ -17757,7 +17756,7 @@
       <c r="G74" s="6"/>
       <c r="H74" s="27"/>
     </row>
-    <row r="75" spans="1:8" ht="13.5" customHeight="1">
+    <row r="75" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>1638</v>
       </c>
@@ -17771,7 +17770,7 @@
       <c r="G75" s="6"/>
       <c r="H75" s="27"/>
     </row>
-    <row r="76" spans="1:8" ht="13.5" customHeight="1">
+    <row r="76" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>1639</v>
       </c>
@@ -17789,7 +17788,7 @@
       <c r="G76" s="6"/>
       <c r="H76" s="27"/>
     </row>
-    <row r="77" spans="1:8" ht="13.5" customHeight="1">
+    <row r="77" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>1640</v>
       </c>
@@ -17807,7 +17806,7 @@
       <c r="G77" s="6"/>
       <c r="H77" s="27"/>
     </row>
-    <row r="78" spans="1:8" ht="13.5" customHeight="1">
+    <row r="78" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>1295</v>
       </c>
@@ -17821,7 +17820,7 @@
       <c r="G78" s="6"/>
       <c r="H78" s="27"/>
     </row>
-    <row r="79" spans="1:8" ht="13.5" customHeight="1">
+    <row r="79" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>1641</v>
       </c>
@@ -17839,7 +17838,7 @@
       <c r="G79" s="6"/>
       <c r="H79" s="27"/>
     </row>
-    <row r="80" spans="1:8" ht="13.5" customHeight="1">
+    <row r="80" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>1642</v>
       </c>
@@ -17857,7 +17856,7 @@
       <c r="G80" s="6"/>
       <c r="H80" s="27"/>
     </row>
-    <row r="81" spans="1:8" ht="13.5" customHeight="1">
+    <row r="81" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>1643</v>
       </c>
@@ -17875,7 +17874,7 @@
       <c r="G81" s="6"/>
       <c r="H81" s="27"/>
     </row>
-    <row r="82" spans="1:8" ht="13.5" customHeight="1">
+    <row r="82" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>1644</v>
       </c>
@@ -17893,7 +17892,7 @@
       <c r="G82" s="6"/>
       <c r="H82" s="27"/>
     </row>
-    <row r="83" spans="1:8" ht="13.5" customHeight="1">
+    <row r="83" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>1297</v>
       </c>
@@ -17907,7 +17906,7 @@
       <c r="G83" s="6"/>
       <c r="H83" s="27"/>
     </row>
-    <row r="84" spans="1:8" ht="13.5" customHeight="1">
+    <row r="84" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>1645</v>
       </c>
@@ -17925,7 +17924,7 @@
       <c r="G84" s="6"/>
       <c r="H84" s="27"/>
     </row>
-    <row r="85" spans="1:8" ht="13.5" customHeight="1">
+    <row r="85" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>1299</v>
       </c>
@@ -17939,7 +17938,7 @@
       <c r="G85" s="6"/>
       <c r="H85" s="27"/>
     </row>
-    <row r="86" spans="1:8" ht="13.5" customHeight="1">
+    <row r="86" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>1646</v>
       </c>
@@ -17961,7 +17960,7 @@
       <c r="G86" s="6"/>
       <c r="H86" s="27"/>
     </row>
-    <row r="87" spans="1:8" ht="13.5" customHeight="1">
+    <row r="87" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>1647</v>
       </c>
@@ -17983,7 +17982,7 @@
       <c r="G87" s="6"/>
       <c r="H87" s="27"/>
     </row>
-    <row r="88" spans="1:8" ht="13.5" customHeight="1">
+    <row r="88" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>1648</v>
       </c>
@@ -18001,7 +18000,7 @@
       <c r="G88" s="6"/>
       <c r="H88" s="27"/>
     </row>
-    <row r="89" spans="1:8" ht="13.5" customHeight="1">
+    <row r="89" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>1649</v>
       </c>
@@ -18015,7 +18014,7 @@
       <c r="G89" s="6"/>
       <c r="H89" s="27"/>
     </row>
-    <row r="90" spans="1:8" ht="13.5" customHeight="1">
+    <row r="90" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>1650</v>
       </c>
@@ -18033,7 +18032,7 @@
       <c r="G90" s="6"/>
       <c r="H90" s="27"/>
     </row>
-    <row r="91" spans="1:8" ht="13.5" customHeight="1">
+    <row r="91" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>1651</v>
       </c>
@@ -18051,7 +18050,7 @@
       <c r="G91" s="6"/>
       <c r="H91" s="27"/>
     </row>
-    <row r="92" spans="1:8" ht="13.5" customHeight="1">
+    <row r="92" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>1652</v>
       </c>
@@ -18069,7 +18068,7 @@
       <c r="G92" s="6"/>
       <c r="H92" s="27"/>
     </row>
-    <row r="93" spans="1:8" ht="13.5" customHeight="1">
+    <row r="93" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>1653</v>
       </c>
@@ -18087,7 +18086,7 @@
       <c r="G93" s="6"/>
       <c r="H93" s="27"/>
     </row>
-    <row r="94" spans="1:8" ht="13.5" customHeight="1">
+    <row r="94" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>1654</v>
       </c>
@@ -18101,7 +18100,7 @@
       <c r="G94" s="6"/>
       <c r="H94" s="27"/>
     </row>
-    <row r="95" spans="1:8" ht="13.5" customHeight="1">
+    <row r="95" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>1655</v>
       </c>
@@ -18127,7 +18126,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="13.5" customHeight="1">
+    <row r="96" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>1656</v>
       </c>
@@ -18141,7 +18140,7 @@
       <c r="G96" s="6"/>
       <c r="H96" s="27"/>
     </row>
-    <row r="97" spans="1:8" ht="13.5" customHeight="1">
+    <row r="97" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>1657</v>
       </c>
@@ -18155,7 +18154,7 @@
       <c r="G97" s="6"/>
       <c r="H97" s="27"/>
     </row>
-    <row r="98" spans="1:8" ht="13.5" customHeight="1">
+    <row r="98" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>1658</v>
       </c>
@@ -18173,7 +18172,7 @@
       <c r="G98" s="6"/>
       <c r="H98" s="27"/>
     </row>
-    <row r="99" spans="1:8" ht="13.5" customHeight="1">
+    <row r="99" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>1659</v>
       </c>
@@ -18191,7 +18190,7 @@
       <c r="G99" s="6"/>
       <c r="H99" s="27"/>
     </row>
-    <row r="100" spans="1:8" ht="13.5" customHeight="1">
+    <row r="100" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>1660</v>
       </c>
@@ -18209,7 +18208,7 @@
       <c r="G100" s="6"/>
       <c r="H100" s="27"/>
     </row>
-    <row r="101" spans="1:8" ht="13.5" customHeight="1">
+    <row r="101" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>1661</v>
       </c>
@@ -18223,7 +18222,7 @@
       <c r="G101" s="6"/>
       <c r="H101" s="27"/>
     </row>
-    <row r="102" spans="1:8" ht="13.5" customHeight="1">
+    <row r="102" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>1662</v>
       </c>
@@ -18241,7 +18240,7 @@
       <c r="G102" s="6"/>
       <c r="H102" s="27"/>
     </row>
-    <row r="103" spans="1:8" ht="13.5" customHeight="1">
+    <row r="103" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>1663</v>
       </c>
@@ -18255,7 +18254,7 @@
       <c r="G103" s="6"/>
       <c r="H103" s="27"/>
     </row>
-    <row r="104" spans="1:8" ht="13.5" customHeight="1">
+    <row r="104" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>1664</v>
       </c>
@@ -18269,7 +18268,7 @@
       <c r="G104" s="6"/>
       <c r="H104" s="27"/>
     </row>
-    <row r="105" spans="1:8" ht="13.5" customHeight="1">
+    <row r="105" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>1665</v>
       </c>
@@ -18295,7 +18294,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13.5" customHeight="1">
+    <row r="106" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
         <v>1666</v>
       </c>
@@ -18309,7 +18308,7 @@
       <c r="G106" s="6"/>
       <c r="H106" s="27"/>
     </row>
-    <row r="107" spans="1:8" ht="13.5" customHeight="1">
+    <row r="107" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>1667</v>
       </c>
@@ -18327,7 +18326,7 @@
       <c r="G107" s="6"/>
       <c r="H107" s="27"/>
     </row>
-    <row r="108" spans="1:8" ht="13.5" customHeight="1">
+    <row r="108" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>1302</v>
       </c>
@@ -18341,7 +18340,7 @@
       <c r="G108" s="6"/>
       <c r="H108" s="27"/>
     </row>
-    <row r="109" spans="1:8" ht="13.5" customHeight="1">
+    <row r="109" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>1668</v>
       </c>
@@ -18355,7 +18354,7 @@
       <c r="G109" s="6"/>
       <c r="H109" s="27"/>
     </row>
-    <row r="110" spans="1:8" ht="13.5" customHeight="1">
+    <row r="110" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>1669</v>
       </c>
@@ -18373,7 +18372,7 @@
       <c r="G110" s="6"/>
       <c r="H110" s="27"/>
     </row>
-    <row r="111" spans="1:8" ht="13.5" customHeight="1">
+    <row r="111" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>1670</v>
       </c>
@@ -18391,7 +18390,7 @@
       <c r="G111" s="6"/>
       <c r="H111" s="27"/>
     </row>
-    <row r="112" spans="1:8" ht="13.5" customHeight="1">
+    <row r="112" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>1671</v>
       </c>
@@ -18405,7 +18404,7 @@
       <c r="G112" s="6"/>
       <c r="H112" s="27"/>
     </row>
-    <row r="113" spans="1:8" ht="13.5" customHeight="1">
+    <row r="113" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
         <v>1672</v>
       </c>
@@ -18423,7 +18422,7 @@
       <c r="G113" s="6"/>
       <c r="H113" s="27"/>
     </row>
-    <row r="114" spans="1:8" ht="13.5" customHeight="1">
+    <row r="114" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
         <v>1673</v>
       </c>
@@ -18437,7 +18436,7 @@
       <c r="G114" s="6"/>
       <c r="H114" s="27"/>
     </row>
-    <row r="115" spans="1:8" ht="13.5" customHeight="1">
+    <row r="115" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>1674</v>
       </c>
@@ -18451,7 +18450,7 @@
       <c r="G115" s="6"/>
       <c r="H115" s="27"/>
     </row>
-    <row r="116" spans="1:8" ht="13.5" customHeight="1">
+    <row r="116" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>1675</v>
       </c>
@@ -18465,7 +18464,7 @@
       <c r="G116" s="6"/>
       <c r="H116" s="27"/>
     </row>
-    <row r="117" spans="1:8" ht="13.5" customHeight="1">
+    <row r="117" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>1676</v>
       </c>
@@ -18483,7 +18482,7 @@
       <c r="G117" s="6"/>
       <c r="H117" s="27"/>
     </row>
-    <row r="118" spans="1:8" ht="13.5" customHeight="1">
+    <row r="118" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
         <v>1677</v>
       </c>
@@ -18497,7 +18496,7 @@
       <c r="G118" s="6"/>
       <c r="H118" s="27"/>
     </row>
-    <row r="119" spans="1:8" ht="13.5" customHeight="1">
+    <row r="119" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>1678</v>
       </c>
@@ -18511,7 +18510,7 @@
       <c r="G119" s="6"/>
       <c r="H119" s="27"/>
     </row>
-    <row r="120" spans="1:8" ht="13.5" customHeight="1">
+    <row r="120" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
         <v>1679</v>
       </c>
@@ -18529,7 +18528,7 @@
       <c r="G120" s="6"/>
       <c r="H120" s="27"/>
     </row>
-    <row r="121" spans="1:8" ht="13.5" customHeight="1">
+    <row r="121" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>1680</v>
       </c>
@@ -18547,7 +18546,7 @@
       <c r="G121" s="6"/>
       <c r="H121" s="27"/>
     </row>
-    <row r="122" spans="1:8" ht="13.5" customHeight="1">
+    <row r="122" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>1681</v>
       </c>
@@ -18573,7 +18572,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13.5" customHeight="1">
+    <row r="123" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>1682</v>
       </c>
@@ -18587,7 +18586,7 @@
       <c r="G123" s="6"/>
       <c r="H123" s="27"/>
     </row>
-    <row r="124" spans="1:8" ht="13.5" customHeight="1">
+    <row r="124" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>1683</v>
       </c>
@@ -18605,7 +18604,7 @@
       <c r="G124" s="6"/>
       <c r="H124" s="27"/>
     </row>
-    <row r="125" spans="1:8" ht="13.5" customHeight="1">
+    <row r="125" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>1684</v>
       </c>
@@ -18619,7 +18618,7 @@
       <c r="G125" s="6"/>
       <c r="H125" s="27"/>
     </row>
-    <row r="126" spans="1:8" ht="13.5" customHeight="1">
+    <row r="126" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>1685</v>
       </c>
@@ -18637,7 +18636,7 @@
       <c r="G126" s="6"/>
       <c r="H126" s="27"/>
     </row>
-    <row r="127" spans="1:8" ht="13.5" customHeight="1">
+    <row r="127" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>1686</v>
       </c>
@@ -18655,7 +18654,7 @@
       <c r="G127" s="6"/>
       <c r="H127" s="27"/>
     </row>
-    <row r="128" spans="1:8" ht="13.5" customHeight="1">
+    <row r="128" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
         <v>1687</v>
       </c>
@@ -18669,7 +18668,7 @@
       <c r="G128" s="6"/>
       <c r="H128" s="27"/>
     </row>
-    <row r="129" spans="1:8" ht="13.5" customHeight="1">
+    <row r="129" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>1305</v>
       </c>
@@ -18683,7 +18682,7 @@
       <c r="G129" s="6"/>
       <c r="H129" s="27"/>
     </row>
-    <row r="130" spans="1:8" ht="13.5" customHeight="1">
+    <row r="130" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>1688</v>
       </c>
@@ -18697,7 +18696,7 @@
       <c r="G130" s="6"/>
       <c r="H130" s="27"/>
     </row>
-    <row r="131" spans="1:8" ht="13.5" customHeight="1">
+    <row r="131" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>1689</v>
       </c>
@@ -18723,7 +18722,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="13.5" customHeight="1">
+    <row r="132" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>1690</v>
       </c>
@@ -18737,7 +18736,7 @@
       <c r="G132" s="6"/>
       <c r="H132" s="27"/>
     </row>
-    <row r="133" spans="1:8" ht="13.5" customHeight="1">
+    <row r="133" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
         <v>1691</v>
       </c>
@@ -18755,7 +18754,7 @@
       <c r="G133" s="6"/>
       <c r="H133" s="27"/>
     </row>
-    <row r="134" spans="1:8" ht="13.5" customHeight="1">
+    <row r="134" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
         <v>1692</v>
       </c>
@@ -18769,7 +18768,7 @@
       <c r="G134" s="6"/>
       <c r="H134" s="27"/>
     </row>
-    <row r="135" spans="1:8" ht="13.5" customHeight="1">
+    <row r="135" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>1693</v>
       </c>
@@ -18787,7 +18786,7 @@
       <c r="G135" s="6"/>
       <c r="H135" s="27"/>
     </row>
-    <row r="136" spans="1:8" ht="13.5" customHeight="1">
+    <row r="136" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>1694</v>
       </c>
@@ -18805,7 +18804,7 @@
       <c r="G136" s="6"/>
       <c r="H136" s="27"/>
     </row>
-    <row r="137" spans="1:8" ht="13.5" customHeight="1">
+    <row r="137" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>1307</v>
       </c>
@@ -18819,7 +18818,7 @@
       <c r="G137" s="6"/>
       <c r="H137" s="27"/>
     </row>
-    <row r="138" spans="1:8" ht="13.5" customHeight="1">
+    <row r="138" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>1695</v>
       </c>
@@ -18837,7 +18836,7 @@
       <c r="G138" s="6"/>
       <c r="H138" s="27"/>
     </row>
-    <row r="139" spans="1:8" ht="13.5" customHeight="1">
+    <row r="139" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>1696</v>
       </c>
@@ -18851,7 +18850,7 @@
       <c r="G139" s="6"/>
       <c r="H139" s="27"/>
     </row>
-    <row r="140" spans="1:8" ht="13.5" customHeight="1">
+    <row r="140" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
         <v>1697</v>
       </c>
@@ -18865,7 +18864,7 @@
       <c r="G140" s="6"/>
       <c r="H140" s="27"/>
     </row>
-    <row r="141" spans="1:8" ht="13.5" customHeight="1">
+    <row r="141" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>1698</v>
       </c>
@@ -18883,7 +18882,7 @@
       <c r="G141" s="6"/>
       <c r="H141" s="27"/>
     </row>
-    <row r="142" spans="1:8" ht="13.5" customHeight="1">
+    <row r="142" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>1699</v>
       </c>
@@ -18897,7 +18896,7 @@
       <c r="G142" s="6"/>
       <c r="H142" s="27"/>
     </row>
-    <row r="143" spans="1:8" ht="13.5" customHeight="1">
+    <row r="143" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
         <v>1700</v>
       </c>
@@ -18911,7 +18910,7 @@
       <c r="G143" s="6"/>
       <c r="H143" s="27"/>
     </row>
-    <row r="144" spans="1:8" ht="13.5" customHeight="1">
+    <row r="144" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="10" t="s">
         <v>1701</v>
       </c>
@@ -18929,7 +18928,7 @@
       <c r="G144" s="6"/>
       <c r="H144" s="27"/>
     </row>
-    <row r="145" spans="1:8" ht="13.5" customHeight="1">
+    <row r="145" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="10" t="s">
         <v>1702</v>
       </c>
@@ -18943,7 +18942,7 @@
       <c r="G145" s="6"/>
       <c r="H145" s="27"/>
     </row>
-    <row r="146" spans="1:8" ht="13.5" customHeight="1">
+    <row r="146" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
         <v>1703</v>
       </c>
@@ -18957,7 +18956,7 @@
       <c r="G146" s="6"/>
       <c r="H146" s="27"/>
     </row>
-    <row r="147" spans="1:8" ht="13.5" customHeight="1">
+    <row r="147" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
         <v>1704</v>
       </c>
@@ -18975,7 +18974,7 @@
       <c r="G147" s="6"/>
       <c r="H147" s="27"/>
     </row>
-    <row r="148" spans="1:8" ht="13.5" customHeight="1">
+    <row r="148" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
         <v>1705</v>
       </c>
@@ -18989,7 +18988,7 @@
       <c r="G148" s="6"/>
       <c r="H148" s="27"/>
     </row>
-    <row r="149" spans="1:8" ht="13.5" customHeight="1">
+    <row r="149" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
         <v>1706</v>
       </c>
@@ -19007,7 +19006,7 @@
       <c r="G149" s="6"/>
       <c r="H149" s="27"/>
     </row>
-    <row r="150" spans="1:8" ht="13.5" customHeight="1">
+    <row r="150" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
         <v>1707</v>
       </c>
@@ -19021,7 +19020,7 @@
       <c r="G150" s="6"/>
       <c r="H150" s="27"/>
     </row>
-    <row r="151" spans="1:8" ht="13.5" customHeight="1">
+    <row r="151" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>1708</v>
       </c>
@@ -19047,7 +19046,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="13.5" customHeight="1">
+    <row r="152" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
         <v>1709</v>
       </c>
@@ -19065,7 +19064,7 @@
       <c r="G152" s="6"/>
       <c r="H152" s="27"/>
     </row>
-    <row r="153" spans="1:8" ht="13.5" customHeight="1">
+    <row r="153" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="s">
         <v>1710</v>
       </c>
@@ -19079,7 +19078,7 @@
       <c r="G153" s="6"/>
       <c r="H153" s="27"/>
     </row>
-    <row r="154" spans="1:8" ht="13.5" customHeight="1">
+    <row r="154" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="10" t="s">
         <v>1711</v>
       </c>
@@ -19097,7 +19096,7 @@
       <c r="G154" s="6"/>
       <c r="H154" s="27"/>
     </row>
-    <row r="155" spans="1:8" ht="13.5" customHeight="1">
+    <row r="155" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
         <v>1712</v>
       </c>
@@ -19115,7 +19114,7 @@
       <c r="G155" s="6"/>
       <c r="H155" s="27"/>
     </row>
-    <row r="156" spans="1:8" ht="13.5" customHeight="1">
+    <row r="156" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
         <v>1713</v>
       </c>
@@ -19133,7 +19132,7 @@
       <c r="G156" s="6"/>
       <c r="H156" s="27"/>
     </row>
-    <row r="157" spans="1:8" ht="13.5" customHeight="1">
+    <row r="157" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>1714</v>
       </c>
@@ -19151,7 +19150,7 @@
       <c r="G157" s="6"/>
       <c r="H157" s="27"/>
     </row>
-    <row r="158" spans="1:8" ht="13.5" customHeight="1">
+    <row r="158" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
         <v>1715</v>
       </c>
@@ -19165,7 +19164,7 @@
       <c r="G158" s="6"/>
       <c r="H158" s="27"/>
     </row>
-    <row r="159" spans="1:8" ht="13.5" customHeight="1">
+    <row r="159" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
         <v>1716</v>
       </c>
@@ -19191,7 +19190,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="13.5" customHeight="1">
+    <row r="160" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="10" t="s">
         <v>1717</v>
       </c>
@@ -19209,7 +19208,7 @@
       <c r="G160" s="6"/>
       <c r="H160" s="27"/>
     </row>
-    <row r="161" spans="1:8" ht="13.5" customHeight="1">
+    <row r="161" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10" t="s">
         <v>1718</v>
       </c>
@@ -19227,7 +19226,7 @@
       <c r="G161" s="6"/>
       <c r="H161" s="27"/>
     </row>
-    <row r="162" spans="1:8" ht="13.5" customHeight="1">
+    <row r="162" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10" t="s">
         <v>1719</v>
       </c>
@@ -19245,7 +19244,7 @@
       <c r="G162" s="6"/>
       <c r="H162" s="27"/>
     </row>
-    <row r="163" spans="1:8" ht="13.5" customHeight="1">
+    <row r="163" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="10" t="s">
         <v>1720</v>
       </c>
@@ -19259,7 +19258,7 @@
       <c r="G163" s="6"/>
       <c r="H163" s="27"/>
     </row>
-    <row r="164" spans="1:8" ht="13.5" customHeight="1">
+    <row r="164" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="10" t="s">
         <v>1721</v>
       </c>
@@ -19277,7 +19276,7 @@
       <c r="G164" s="6"/>
       <c r="H164" s="27"/>
     </row>
-    <row r="165" spans="1:8" ht="13.5" customHeight="1">
+    <row r="165" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="10" t="s">
         <v>1722</v>
       </c>
@@ -19291,7 +19290,7 @@
       <c r="G165" s="6"/>
       <c r="H165" s="27"/>
     </row>
-    <row r="166" spans="1:8" ht="13.5" customHeight="1">
+    <row r="166" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="10" t="s">
         <v>1723</v>
       </c>
@@ -19305,7 +19304,7 @@
       <c r="G166" s="6"/>
       <c r="H166" s="27"/>
     </row>
-    <row r="167" spans="1:8" ht="13.5" customHeight="1">
+    <row r="167" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="s">
         <v>1724</v>
       </c>
@@ -19323,7 +19322,7 @@
       <c r="G167" s="6"/>
       <c r="H167" s="27"/>
     </row>
-    <row r="168" spans="1:8" ht="13.5" customHeight="1">
+    <row r="168" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10" t="s">
         <v>1725</v>
       </c>
@@ -19337,7 +19336,7 @@
       <c r="G168" s="6"/>
       <c r="H168" s="27"/>
     </row>
-    <row r="169" spans="1:8" ht="13.5" customHeight="1">
+    <row r="169" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="8" t="s">
         <v>1726</v>
       </c>
@@ -19355,7 +19354,7 @@
       <c r="G169" s="6"/>
       <c r="H169" s="27"/>
     </row>
-    <row r="170" spans="1:8" ht="13.5" customHeight="1">
+    <row r="170" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="10" t="s">
         <v>1727</v>
       </c>
@@ -19373,7 +19372,7 @@
       <c r="G170" s="6"/>
       <c r="H170" s="27"/>
     </row>
-    <row r="171" spans="1:8" ht="13.5" customHeight="1">
+    <row r="171" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
         <v>1728</v>
       </c>
@@ -19387,7 +19386,7 @@
       <c r="G171" s="6"/>
       <c r="H171" s="27"/>
     </row>
-    <row r="172" spans="1:8" ht="13.5" customHeight="1">
+    <row r="172" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10" t="s">
         <v>1729</v>
       </c>
@@ -19405,7 +19404,7 @@
       <c r="G172" s="6"/>
       <c r="H172" s="27"/>
     </row>
-    <row r="173" spans="1:8" ht="13.5" customHeight="1">
+    <row r="173" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="8" t="s">
         <v>1730</v>
       </c>
@@ -19419,7 +19418,7 @@
       <c r="G173" s="6"/>
       <c r="H173" s="27"/>
     </row>
-    <row r="174" spans="1:8" ht="13.5" customHeight="1">
+    <row r="174" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="10" t="s">
         <v>1731</v>
       </c>
@@ -19433,7 +19432,7 @@
       <c r="G174" s="6"/>
       <c r="H174" s="27"/>
     </row>
-    <row r="175" spans="1:8" ht="13.5" customHeight="1">
+    <row r="175" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
         <v>1312</v>
       </c>
@@ -19447,7 +19446,7 @@
       <c r="G175" s="6"/>
       <c r="H175" s="27"/>
     </row>
-    <row r="176" spans="1:8" ht="13.5" customHeight="1">
+    <row r="176" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="10" t="s">
         <v>1313</v>
       </c>
@@ -19461,7 +19460,7 @@
       <c r="G176" s="6"/>
       <c r="H176" s="27"/>
     </row>
-    <row r="177" spans="1:8" ht="13.5" customHeight="1">
+    <row r="177" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>1732</v>
       </c>
@@ -19475,7 +19474,7 @@
       <c r="G177" s="6"/>
       <c r="H177" s="27"/>
     </row>
-    <row r="178" spans="1:8" ht="13.5" customHeight="1">
+    <row r="178" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>1733</v>
       </c>
@@ -19489,7 +19488,7 @@
       <c r="G178" s="7"/>
       <c r="H178" s="42"/>
     </row>
-    <row r="179" spans="1:8" ht="13.5" customHeight="1">
+    <row r="179" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="10" t="s">
         <v>1734</v>
       </c>
@@ -19515,7 +19514,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="13.5" customHeight="1">
+    <row r="180" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10" t="s">
         <v>1735</v>
       </c>
@@ -19529,7 +19528,7 @@
       <c r="G180" s="6"/>
       <c r="H180" s="27"/>
     </row>
-    <row r="181" spans="1:8" ht="13.5" customHeight="1">
+    <row r="181" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="10" t="s">
         <v>1736</v>
       </c>
@@ -19543,7 +19542,7 @@
       <c r="G181" s="6"/>
       <c r="H181" s="27"/>
     </row>
-    <row r="182" spans="1:8" ht="13.5" customHeight="1">
+    <row r="182" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="8" t="s">
         <v>1737</v>
       </c>
@@ -19561,7 +19560,7 @@
       <c r="G182" s="6"/>
       <c r="H182" s="27"/>
     </row>
-    <row r="183" spans="1:8" ht="13.5" customHeight="1">
+    <row r="183" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="10" t="s">
         <v>1738</v>
       </c>
@@ -19575,7 +19574,7 @@
       <c r="G183" s="6"/>
       <c r="H183" s="27"/>
     </row>
-    <row r="184" spans="1:8" ht="13.5" customHeight="1">
+    <row r="184" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="10" t="s">
         <v>1739</v>
       </c>
@@ -19593,7 +19592,7 @@
       <c r="G184" s="6"/>
       <c r="H184" s="27"/>
     </row>
-    <row r="185" spans="1:8" ht="13.5" customHeight="1">
+    <row r="185" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="10" t="s">
         <v>1740</v>
       </c>
@@ -19615,7 +19614,7 @@
       <c r="G185" s="6"/>
       <c r="H185" s="27"/>
     </row>
-    <row r="186" spans="1:8" ht="13.5" customHeight="1">
+    <row r="186" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="8" t="s">
         <v>1319</v>
       </c>
@@ -19629,7 +19628,7 @@
       <c r="G186" s="6"/>
       <c r="H186" s="27"/>
     </row>
-    <row r="187" spans="1:8" ht="13.5" customHeight="1">
+    <row r="187" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="s">
         <v>1741</v>
       </c>
@@ -19643,7 +19642,7 @@
       <c r="G187" s="6"/>
       <c r="H187" s="27"/>
     </row>
-    <row r="188" spans="1:8" ht="13.5" customHeight="1">
+    <row r="188" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="8" t="s">
         <v>1742</v>
       </c>
@@ -19665,7 +19664,7 @@
       <c r="G188" s="6"/>
       <c r="H188" s="27"/>
     </row>
-    <row r="189" spans="1:8" ht="13.5" customHeight="1">
+    <row r="189" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="10" t="s">
         <v>1743</v>
       </c>
@@ -19683,7 +19682,7 @@
       <c r="G189" s="6"/>
       <c r="H189" s="27"/>
     </row>
-    <row r="190" spans="1:8" ht="13.5" customHeight="1">
+    <row r="190" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="10" t="s">
         <v>1744</v>
       </c>
@@ -19701,7 +19700,7 @@
       <c r="G190" s="6"/>
       <c r="H190" s="27"/>
     </row>
-    <row r="191" spans="1:8" ht="13.5" customHeight="1">
+    <row r="191" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>1745</v>
       </c>
@@ -19727,7 +19726,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="13.5" customHeight="1">
+    <row r="192" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="10" t="s">
         <v>1746</v>
       </c>
@@ -19741,7 +19740,7 @@
       <c r="G192" s="6"/>
       <c r="H192" s="27"/>
     </row>
-    <row r="193" spans="1:8" ht="13.5" customHeight="1">
+    <row r="193" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="8" t="s">
         <v>1747</v>
       </c>
@@ -19755,7 +19754,7 @@
       <c r="G193" s="6"/>
       <c r="H193" s="27"/>
     </row>
-    <row r="194" spans="1:8" ht="13.5" customHeight="1">
+    <row r="194" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>1748</v>
       </c>
@@ -19777,7 +19776,7 @@
       <c r="G194" s="6"/>
       <c r="H194" s="27"/>
     </row>
-    <row r="195" spans="1:8" ht="13.5" customHeight="1">
+    <row r="195" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="10" t="s">
         <v>1749</v>
       </c>
@@ -19791,7 +19790,7 @@
       <c r="G195" s="6"/>
       <c r="H195" s="27"/>
     </row>
-    <row r="196" spans="1:8" ht="13.5" customHeight="1">
+    <row r="196" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="10" t="s">
         <v>1750</v>
       </c>
@@ -19805,7 +19804,7 @@
       <c r="G196" s="6"/>
       <c r="H196" s="27"/>
     </row>
-    <row r="197" spans="1:8" ht="13.5" customHeight="1">
+    <row r="197" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="10" t="s">
         <v>1751</v>
       </c>
@@ -19819,7 +19818,7 @@
       <c r="G197" s="6"/>
       <c r="H197" s="27"/>
     </row>
-    <row r="198" spans="1:8" ht="13.5" customHeight="1">
+    <row r="198" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="10" t="s">
         <v>1752</v>
       </c>
@@ -19833,7 +19832,7 @@
       <c r="G198" s="6"/>
       <c r="H198" s="27"/>
     </row>
-    <row r="199" spans="1:8" ht="13.5" customHeight="1">
+    <row r="199" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="10" t="s">
         <v>1753</v>
       </c>
@@ -19855,7 +19854,7 @@
       <c r="G199" s="6"/>
       <c r="H199" s="27"/>
     </row>
-    <row r="200" spans="1:8" ht="13.5" customHeight="1">
+    <row r="200" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>1754</v>
       </c>
@@ -19881,7 +19880,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="13.5" customHeight="1">
+    <row r="201" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="10" t="s">
         <v>1755</v>
       </c>
@@ -19899,7 +19898,7 @@
       <c r="G201" s="6"/>
       <c r="H201" s="27"/>
     </row>
-    <row r="202" spans="1:8" ht="13.5" customHeight="1">
+    <row r="202" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
         <v>1756</v>
       </c>
@@ -19917,7 +19916,7 @@
       <c r="G202" s="7"/>
       <c r="H202" s="42"/>
     </row>
-    <row r="203" spans="1:8" ht="13.5" customHeight="1">
+    <row r="203" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="8" t="s">
         <v>1757</v>
       </c>
@@ -19943,7 +19942,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="13.5" customHeight="1">
+    <row r="204" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="10" t="s">
         <v>1758</v>
       </c>
@@ -19965,7 +19964,7 @@
       <c r="G204" s="6"/>
       <c r="H204" s="27"/>
     </row>
-    <row r="205" spans="1:8" ht="13.5" customHeight="1">
+    <row r="205" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="10" t="s">
         <v>1759</v>
       </c>
@@ -19987,7 +19986,7 @@
       <c r="G205" s="6"/>
       <c r="H205" s="27"/>
     </row>
-    <row r="206" spans="1:8" ht="13.5" customHeight="1">
+    <row r="206" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="10" t="s">
         <v>1760</v>
       </c>
@@ -20009,7 +20008,7 @@
       <c r="G206" s="6"/>
       <c r="H206" s="27"/>
     </row>
-    <row r="207" spans="1:8" ht="13.5" customHeight="1">
+    <row r="207" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>1761</v>
       </c>
@@ -20035,7 +20034,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="13.5" customHeight="1">
+    <row r="208" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="10" t="s">
         <v>1762</v>
       </c>
@@ -20053,7 +20052,7 @@
       <c r="G208" s="6"/>
       <c r="H208" s="27"/>
     </row>
-    <row r="209" spans="1:8" ht="13.5" customHeight="1">
+    <row r="209" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>1763</v>
       </c>
@@ -20075,7 +20074,7 @@
       <c r="G209" s="6"/>
       <c r="H209" s="27"/>
     </row>
-    <row r="210" spans="1:8" ht="13.5" customHeight="1">
+    <row r="210" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="10" t="s">
         <v>1764</v>
       </c>
@@ -20093,7 +20092,7 @@
       <c r="G210" s="6"/>
       <c r="H210" s="27"/>
     </row>
-    <row r="211" spans="1:8" ht="13.5" customHeight="1">
+    <row r="211" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
         <v>1765</v>
       </c>
@@ -20115,7 +20114,7 @@
       <c r="G211" s="6"/>
       <c r="H211" s="27"/>
     </row>
-    <row r="212" spans="1:8" ht="13.5" customHeight="1">
+    <row r="212" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
         <v>1766</v>
       </c>
@@ -20133,7 +20132,7 @@
       <c r="G212" s="6"/>
       <c r="H212" s="27"/>
     </row>
-    <row r="213" spans="1:8" ht="13.5" customHeight="1">
+    <row r="213" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>1324</v>
       </c>
@@ -20147,7 +20146,7 @@
       <c r="G213" s="6"/>
       <c r="H213" s="27"/>
     </row>
-    <row r="214" spans="1:8" ht="13.5" customHeight="1">
+    <row r="214" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="10" t="s">
         <v>1767</v>
       </c>
@@ -20165,7 +20164,7 @@
       <c r="G214" s="6"/>
       <c r="H214" s="27"/>
     </row>
-    <row r="215" spans="1:8" ht="13.5" customHeight="1">
+    <row r="215" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="10" t="s">
         <v>1768</v>
       </c>
@@ -20183,7 +20182,7 @@
       <c r="G215" s="6"/>
       <c r="H215" s="27"/>
     </row>
-    <row r="216" spans="1:8" ht="13.5" customHeight="1">
+    <row r="216" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="43" t="s">
         <v>1769</v>
       </c>
@@ -20209,7 +20208,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="13.5" customHeight="1">
+    <row r="217" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
         <v>1330</v>
       </c>
@@ -20235,7 +20234,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="13.5" customHeight="1">
+    <row r="218" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>1333</v>
       </c>
@@ -20253,7 +20252,7 @@
       <c r="G218" s="6"/>
       <c r="H218" s="27"/>
     </row>
-    <row r="219" spans="1:8" ht="13.5" customHeight="1">
+    <row r="219" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="10" t="s">
         <v>1335</v>
       </c>
@@ -20267,7 +20266,7 @@
       <c r="G219" s="6"/>
       <c r="H219" s="27"/>
     </row>
-    <row r="220" spans="1:8" ht="13.5" customHeight="1">
+    <row r="220" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>1338</v>
       </c>
@@ -20289,7 +20288,7 @@
       <c r="G220" s="6"/>
       <c r="H220" s="27"/>
     </row>
-    <row r="221" spans="1:8" ht="13.5" customHeight="1">
+    <row r="221" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="10" t="s">
         <v>1341</v>
       </c>
@@ -20307,7 +20306,7 @@
       <c r="G221" s="6"/>
       <c r="H221" s="27"/>
     </row>
-    <row r="222" spans="1:8" ht="13.5" customHeight="1">
+    <row r="222" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="10" t="s">
         <v>1343</v>
       </c>
@@ -20329,7 +20328,7 @@
       <c r="G222" s="6"/>
       <c r="H222" s="27"/>
     </row>
-    <row r="223" spans="1:8" ht="13.5" customHeight="1">
+    <row r="223" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>1345</v>
       </c>
@@ -20351,7 +20350,7 @@
       <c r="G223" s="6"/>
       <c r="H223" s="27"/>
     </row>
-    <row r="224" spans="1:8" ht="13.5" customHeight="1">
+    <row r="224" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="10" t="s">
         <v>1347</v>
       </c>
@@ -20365,7 +20364,7 @@
       <c r="G224" s="6"/>
       <c r="H224" s="27"/>
     </row>
-    <row r="225" spans="1:8" ht="13.5" customHeight="1">
+    <row r="225" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="10" t="s">
         <v>1349</v>
       </c>
@@ -20379,7 +20378,7 @@
       <c r="G225" s="6"/>
       <c r="H225" s="27"/>
     </row>
-    <row r="226" spans="1:8" ht="13.5" customHeight="1">
+    <row r="226" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="10" t="s">
         <v>1352</v>
       </c>
@@ -20397,7 +20396,7 @@
       <c r="G226" s="6"/>
       <c r="H226" s="27"/>
     </row>
-    <row r="227" spans="1:8" ht="13.5" customHeight="1">
+    <row r="227" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="10" t="s">
         <v>1354</v>
       </c>
@@ -20415,7 +20414,7 @@
       <c r="G227" s="6"/>
       <c r="H227" s="27"/>
     </row>
-    <row r="228" spans="1:8" ht="13.5" customHeight="1">
+    <row r="228" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="10" t="s">
         <v>1356</v>
       </c>
@@ -20433,7 +20432,7 @@
       <c r="G228" s="6"/>
       <c r="H228" s="27"/>
     </row>
-    <row r="229" spans="1:8" ht="13.5" customHeight="1">
+    <row r="229" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="10" t="s">
         <v>1360</v>
       </c>
@@ -20455,7 +20454,7 @@
       <c r="G229" s="6"/>
       <c r="H229" s="27"/>
     </row>
-    <row r="230" spans="1:8" ht="13.5" customHeight="1">
+    <row r="230" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>1363</v>
       </c>
@@ -20473,7 +20472,7 @@
       <c r="G230" s="6"/>
       <c r="H230" s="27"/>
     </row>
-    <row r="231" spans="1:8" ht="13.5" customHeight="1">
+    <row r="231" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
         <v>1368</v>
       </c>
@@ -20499,7 +20498,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="13.5" customHeight="1">
+    <row r="232" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>1371</v>
       </c>
@@ -20521,7 +20520,7 @@
       <c r="G232" s="6"/>
       <c r="H232" s="27"/>
     </row>
-    <row r="233" spans="1:8" ht="13.5" customHeight="1">
+    <row r="233" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="10" t="s">
         <v>1373</v>
       </c>
@@ -20535,7 +20534,7 @@
       <c r="G233" s="6"/>
       <c r="H233" s="27"/>
     </row>
-    <row r="234" spans="1:8" ht="13.5" customHeight="1">
+    <row r="234" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="10" t="s">
         <v>1380</v>
       </c>
@@ -20561,7 +20560,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="13.5" customHeight="1">
+    <row r="235" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="8" t="s">
         <v>1382</v>
       </c>
@@ -20575,7 +20574,7 @@
       <c r="G235" s="6"/>
       <c r="H235" s="27"/>
     </row>
-    <row r="236" spans="1:8" ht="13.5" customHeight="1">
+    <row r="236" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="10" t="s">
         <v>1384</v>
       </c>
@@ -20593,7 +20592,7 @@
       <c r="G236" s="6"/>
       <c r="H236" s="27"/>
     </row>
-    <row r="237" spans="1:8" ht="13.5" customHeight="1">
+    <row r="237" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
         <v>1387</v>
       </c>
@@ -20615,7 +20614,7 @@
       <c r="G237" s="6"/>
       <c r="H237" s="27"/>
     </row>
-    <row r="238" spans="1:8" ht="13.5" customHeight="1">
+    <row r="238" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="10" t="s">
         <v>1389</v>
       </c>
@@ -20629,7 +20628,7 @@
       <c r="G238" s="6"/>
       <c r="H238" s="27"/>
     </row>
-    <row r="239" spans="1:8" ht="13.5" customHeight="1">
+    <row r="239" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
         <v>1393</v>
       </c>
@@ -20651,7 +20650,7 @@
       <c r="G239" s="6"/>
       <c r="H239" s="27"/>
     </row>
-    <row r="240" spans="1:8" ht="13.5" customHeight="1">
+    <row r="240" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="10" t="s">
         <v>1770</v>
       </c>
@@ -20665,7 +20664,7 @@
       <c r="G240" s="6"/>
       <c r="H240" s="27"/>
     </row>
-    <row r="241" spans="1:8" ht="13.5" customHeight="1">
+    <row r="241" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="10" t="s">
         <v>1399</v>
       </c>
@@ -20687,7 +20686,7 @@
       <c r="G241" s="6"/>
       <c r="H241" s="27"/>
     </row>
-    <row r="242" spans="1:8" ht="13.5" customHeight="1">
+    <row r="242" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="8" t="s">
         <v>1401</v>
       </c>
@@ -20701,7 +20700,7 @@
       <c r="G242" s="6"/>
       <c r="H242" s="27"/>
     </row>
-    <row r="243" spans="1:8" ht="13.5" customHeight="1">
+    <row r="243" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="10" t="s">
         <v>1405</v>
       </c>
@@ -20719,7 +20718,7 @@
       <c r="G243" s="6"/>
       <c r="H243" s="27"/>
     </row>
-    <row r="244" spans="1:8" ht="13.5" customHeight="1">
+    <row r="244" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="10" t="s">
         <v>1408</v>
       </c>
@@ -20741,7 +20740,7 @@
       <c r="G244" s="6"/>
       <c r="H244" s="27"/>
     </row>
-    <row r="245" spans="1:8" ht="13.5" customHeight="1">
+    <row r="245" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="10" t="s">
         <v>1410</v>
       </c>
@@ -20763,7 +20762,7 @@
       <c r="G245" s="6"/>
       <c r="H245" s="27"/>
     </row>
-    <row r="246" spans="1:8" ht="13.5" customHeight="1">
+    <row r="246" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
         <v>1771</v>
       </c>
@@ -20789,7 +20788,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="13.5" customHeight="1">
+    <row r="247" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="10" t="s">
         <v>1772</v>
       </c>
@@ -20807,7 +20806,7 @@
       <c r="G247" s="6"/>
       <c r="H247" s="27"/>
     </row>
-    <row r="248" spans="1:8" ht="13.5" customHeight="1">
+    <row r="248" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="10" t="s">
         <v>1416</v>
       </c>
@@ -20829,7 +20828,7 @@
       <c r="G248" s="6"/>
       <c r="H248" s="27"/>
     </row>
-    <row r="249" spans="1:8" ht="13.5" customHeight="1">
+    <row r="249" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="10" t="s">
         <v>1418</v>
       </c>
@@ -20851,7 +20850,7 @@
       <c r="G249" s="6"/>
       <c r="H249" s="27"/>
     </row>
-    <row r="250" spans="1:8" ht="13.5" customHeight="1">
+    <row r="250" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="10" t="s">
         <v>1422</v>
       </c>
@@ -20877,7 +20876,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="13.5" customHeight="1">
+    <row r="251" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="8" t="s">
         <v>1425</v>
       </c>
@@ -20895,7 +20894,7 @@
       <c r="G251" s="6"/>
       <c r="H251" s="27"/>
     </row>
-    <row r="252" spans="1:8" ht="13.5" customHeight="1">
+    <row r="252" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="10" t="s">
         <v>1427</v>
       </c>
@@ -20909,7 +20908,7 @@
       <c r="G252" s="6"/>
       <c r="H252" s="27"/>
     </row>
-    <row r="253" spans="1:8" ht="13.5" customHeight="1">
+    <row r="253" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="10" t="s">
         <v>1429</v>
       </c>
@@ -20927,7 +20926,7 @@
       <c r="G253" s="6"/>
       <c r="H253" s="27"/>
     </row>
-    <row r="254" spans="1:8" ht="13.5" customHeight="1">
+    <row r="254" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
         <v>1432</v>
       </c>
@@ -20953,7 +20952,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="13.5" customHeight="1">
+    <row r="255" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="10" t="s">
         <v>1434</v>
       </c>
@@ -20971,7 +20970,7 @@
       <c r="G255" s="6"/>
       <c r="H255" s="27"/>
     </row>
-    <row r="256" spans="1:8" ht="13.5" customHeight="1">
+    <row r="256" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="10" t="s">
         <v>1436</v>
       </c>
@@ -20989,7 +20988,7 @@
       <c r="G256" s="6"/>
       <c r="H256" s="27"/>
     </row>
-    <row r="257" spans="1:8" ht="13.5" customHeight="1">
+    <row r="257" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
         <v>1773</v>
       </c>
@@ -21011,7 +21010,7 @@
       <c r="G257" s="6"/>
       <c r="H257" s="27"/>
     </row>
-    <row r="258" spans="1:8" ht="13.5" customHeight="1">
+    <row r="258" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="10" t="s">
         <v>1774</v>
       </c>
@@ -21025,7 +21024,7 @@
       <c r="G258" s="6"/>
       <c r="H258" s="27"/>
     </row>
-    <row r="259" spans="1:8" ht="13.5" customHeight="1">
+    <row r="259" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="10" t="s">
         <v>1775</v>
       </c>
@@ -21047,7 +21046,7 @@
       <c r="G259" s="6"/>
       <c r="H259" s="27"/>
     </row>
-    <row r="260" spans="1:8" ht="13.5" customHeight="1">
+    <row r="260" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="10" t="s">
         <v>1776</v>
       </c>
@@ -21069,7 +21068,7 @@
       <c r="G260" s="6"/>
       <c r="H260" s="27"/>
     </row>
-    <row r="261" spans="1:8" ht="13.5" customHeight="1">
+    <row r="261" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="11" t="s">
         <v>1441</v>
       </c>
@@ -21095,7 +21094,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="13.5" customHeight="1">
+    <row r="262" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="43" t="s">
         <v>1444</v>
       </c>
@@ -21117,7 +21116,7 @@
       <c r="G262" s="6"/>
       <c r="H262" s="27"/>
     </row>
-    <row r="263" spans="1:8" ht="13.5" customHeight="1">
+    <row r="263" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="43" t="s">
         <v>1777</v>
       </c>
@@ -21139,7 +21138,7 @@
       <c r="G263" s="6"/>
       <c r="H263" s="27"/>
     </row>
-    <row r="264" spans="1:8" ht="13.5" customHeight="1">
+    <row r="264" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="43" t="s">
         <v>1778</v>
       </c>
@@ -21161,7 +21160,7 @@
       <c r="G264" s="6"/>
       <c r="H264" s="27"/>
     </row>
-    <row r="265" spans="1:8" ht="13.5" customHeight="1">
+    <row r="265" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="11" t="s">
         <v>1779</v>
       </c>
@@ -21187,7 +21186,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="13.5" customHeight="1">
+    <row r="266" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="43" t="s">
         <v>1780</v>
       </c>
@@ -21205,7 +21204,7 @@
       <c r="G266" s="6"/>
       <c r="H266" s="27"/>
     </row>
-    <row r="267" spans="1:8" ht="13.5" customHeight="1">
+    <row r="267" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="43" t="s">
         <v>1781</v>
       </c>
@@ -21231,7 +21230,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="13.5" customHeight="1">
+    <row r="268" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="11" t="s">
         <v>1782</v>
       </c>
@@ -21257,7 +21256,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="13.5" customHeight="1">
+    <row r="269" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="43" t="s">
         <v>1783</v>
       </c>
@@ -21279,7 +21278,7 @@
       <c r="G269" s="6"/>
       <c r="H269" s="27"/>
     </row>
-    <row r="270" spans="1:8" ht="13.5" customHeight="1">
+    <row r="270" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="11" t="s">
         <v>1784</v>
       </c>
@@ -21305,7 +21304,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="13.5" customHeight="1">
+    <row r="271" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="43" t="s">
         <v>1785</v>
       </c>
@@ -21327,7 +21326,7 @@
       <c r="G271" s="6"/>
       <c r="H271" s="27"/>
     </row>
-    <row r="272" spans="1:8" ht="13.5" customHeight="1">
+    <row r="272" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="43" t="s">
         <v>1786</v>
       </c>
@@ -21349,7 +21348,7 @@
       <c r="G272" s="6"/>
       <c r="H272" s="27"/>
     </row>
-    <row r="273" spans="1:8" ht="13.5" customHeight="1">
+    <row r="273" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="11" t="s">
         <v>1787</v>
       </c>
@@ -21371,7 +21370,7 @@
       <c r="G273" s="6"/>
       <c r="H273" s="27"/>
     </row>
-    <row r="274" spans="1:8" ht="13.5" customHeight="1">
+    <row r="274" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="43" t="s">
         <v>1788</v>
       </c>
@@ -21385,7 +21384,7 @@
       <c r="G274" s="6"/>
       <c r="H274" s="27"/>
     </row>
-    <row r="275" spans="1:8" ht="13.5" customHeight="1">
+    <row r="275" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="43" t="s">
         <v>1789</v>
       </c>
@@ -21407,7 +21406,7 @@
       <c r="G275" s="6"/>
       <c r="H275" s="27"/>
     </row>
-    <row r="276" spans="1:8" ht="13.5" customHeight="1">
+    <row r="276" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="11" t="s">
         <v>1790</v>
       </c>
@@ -21433,7 +21432,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="13.5" customHeight="1">
+    <row r="277" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="43" t="s">
         <v>1791</v>
       </c>
@@ -21447,7 +21446,7 @@
       <c r="G277" s="6"/>
       <c r="H277" s="27"/>
     </row>
-    <row r="278" spans="1:8" ht="13.5" customHeight="1">
+    <row r="278" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="11" t="s">
         <v>1792</v>
       </c>
@@ -21469,7 +21468,7 @@
       <c r="G278" s="6"/>
       <c r="H278" s="27"/>
     </row>
-    <row r="279" spans="1:8" ht="13.5" customHeight="1">
+    <row r="279" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="10" t="s">
         <v>1793</v>
       </c>
@@ -21487,7 +21486,7 @@
       <c r="G279" s="6"/>
       <c r="H279" s="27"/>
     </row>
-    <row r="280" spans="1:8" ht="13.5" customHeight="1">
+    <row r="280" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="43" t="s">
         <v>1794</v>
       </c>
@@ -21509,7 +21508,7 @@
       <c r="G280" s="6"/>
       <c r="H280" s="27"/>
     </row>
-    <row r="281" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
+    <row r="281" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="13" t="s">
         <v>1456</v>
       </c>
@@ -21535,7 +21534,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="13.5" customHeight="1">
+    <row r="282" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="57" t="s">
         <v>2111</v>
       </c>
@@ -21561,7 +21560,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="13.5" customHeight="1">
+    <row r="283" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="64" t="s">
         <v>2113</v>
       </c>
@@ -21587,7 +21586,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="13.5" customHeight="1">
+    <row r="284" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="64" t="s">
         <v>2115</v>
       </c>
@@ -21613,7 +21612,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="13.5" customHeight="1">
+    <row r="285" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="64" t="s">
         <v>2117</v>
       </c>
@@ -21639,7 +21638,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="13.5" customHeight="1">
+    <row r="286" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="64" t="s">
         <v>2119</v>
       </c>
@@ -21665,7 +21664,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="13.5" customHeight="1">
+    <row r="287" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="64" t="s">
         <v>2121</v>
       </c>
@@ -21691,7 +21690,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="13.5" customHeight="1">
+    <row r="288" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="64" t="s">
         <v>2123</v>
       </c>
@@ -21717,7 +21716,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="13.5" customHeight="1">
+    <row r="289" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="64" t="s">
         <v>2125</v>
       </c>
@@ -21743,7 +21742,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="13.5" customHeight="1">
+    <row r="290" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="64" t="s">
         <v>2127</v>
       </c>
@@ -21769,7 +21768,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="13.5" customHeight="1">
+    <row r="291" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="64" t="s">
         <v>2129</v>
       </c>
@@ -21795,7 +21794,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="13.5" customHeight="1">
+    <row r="292" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="64" t="s">
         <v>2131</v>
       </c>
@@ -21821,7 +21820,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="13.5" customHeight="1">
+    <row r="293" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="64" t="s">
         <v>2176</v>
       </c>
@@ -21847,7 +21846,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="13.5" customHeight="1">
+    <row r="294" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="64" t="s">
         <v>2180</v>
       </c>
@@ -21873,7 +21872,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="13.5" customHeight="1">
+    <row r="295" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="64" t="s">
         <v>2183</v>
       </c>
@@ -21899,7 +21898,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="13.5" customHeight="1">
+    <row r="296" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="64" t="s">
         <v>2135</v>
       </c>
@@ -21925,7 +21924,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="13.5" customHeight="1">
+    <row r="297" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="64" t="s">
         <v>2139</v>
       </c>
@@ -21951,7 +21950,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="13.5" customHeight="1">
+    <row r="298" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="64" t="s">
         <v>2141</v>
       </c>
@@ -21977,7 +21976,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="13.5" customHeight="1">
+    <row r="299" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="64" t="s">
         <v>2189</v>
       </c>
@@ -22003,7 +22002,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="13.5" customHeight="1">
+    <row r="300" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="64" t="s">
         <v>2143</v>
       </c>
@@ -22029,7 +22028,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="13.5" customHeight="1">
+    <row r="301" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="71" t="s">
         <v>2194</v>
       </c>
@@ -22055,7 +22054,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="13.5" customHeight="1">
+    <row r="302" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="64" t="s">
         <v>2145</v>
       </c>
@@ -22081,7 +22080,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="13.5" customHeight="1">
+    <row r="303" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="64" t="s">
         <v>2147</v>
       </c>
@@ -22107,7 +22106,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="13.5" customHeight="1">
+    <row r="304" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="64" t="s">
         <v>2149</v>
       </c>
@@ -22133,7 +22132,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="13.5" customHeight="1">
+    <row r="305" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="64" t="s">
         <v>2151</v>
       </c>
@@ -22159,7 +22158,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="13.5" customHeight="1">
+    <row r="306" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="64" t="s">
         <v>2153</v>
       </c>
@@ -22185,7 +22184,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="13.5" customHeight="1">
+    <row r="307" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="64" t="s">
         <v>2155</v>
       </c>
@@ -22211,7 +22210,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="13.5" customHeight="1">
+    <row r="308" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="64" t="s">
         <v>2157</v>
       </c>
@@ -22237,7 +22236,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="13.5" customHeight="1">
+    <row r="309" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="64" t="s">
         <v>2159</v>
       </c>
@@ -22263,7 +22262,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
+    <row r="310" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A310" s="85" t="s">
         <v>2161</v>
       </c>
